--- a/results_analysis/spark_vertebralColum_02_hold_01.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ADFA81-10F5-4056-9A24-E76D9A5A2FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D3560A-1A6A-4CA8-94FC-D550017E52D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1081,28 +1081,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.71827956989247299</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.70752688172042999</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.74838709677419402</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.73978494623655899</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.79784946236559195</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.76236559139784998</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.69892473118279597</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.70107526881720394</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.72365591397849505</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.76989247311828002</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.70107526881720394</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.74623655913978504</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.79139784946236602</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.75591397849462405</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1112,14 +1144,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.71935483870967798</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.68064516129032304</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.72473118279569904</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.73548387096774204</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.70860215053763498</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.738709677419355</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.70752688172042999</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1127,14 +1175,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.74623655913978504</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.74086021505376398</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.75591397849462405</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.73978494623655899</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.75053763440860199</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.73548387096774204</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1146,28 +1210,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.75376344086021496</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.72258064516128995</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.77526881720430096</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.79784946236559195</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.72365591397849505</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.75053763440860199</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.76451612903225796</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.76236559139784998</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.75698924731182804</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.79139784946236602</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.761290322580645</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.76881720430107503</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1177,14 +1273,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.74086021505376398</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.727956989247312</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.72688172043010801</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.79247311827957001</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.72258064516128995</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.69354838709677402</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -1192,14 +1304,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.76451612903225796</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.79247311827957001</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.77956989247311803</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.77634408602150595</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.77634408602150595</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.75376344086021496</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1211,28 +1339,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.73225806451612896</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.72150537634408596</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.73548387096774204</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.73763440860215101</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.72688172043010801</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.76989247311828002</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.73655913978494603</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.75591397849462405</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.75483870967741895</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.761290322580645</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.78602150537634397</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1242,14 +1402,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.72473118279569904</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.74623655913978504</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.75913978494623702</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.71290322580645205</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.73440860215053805</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.73978494623655899</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.72903225806451599</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.72365591397849505</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -1257,14 +1433,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.75591397849462405</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.71397849462365603</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.76559139784946295</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.76236559139784998</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.77526881720430096</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.77849462365591404</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.75483870967741895</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.78064516129032302</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1276,28 +1468,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.75376344086021496</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.727956989247312</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.75913978494623702</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.73225806451612896</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.73548387096774204</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.71935483870967798</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.727956989247312</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.75591397849462405</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.76774193548387104</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.76989247311828002</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.76559139784946295</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.73763440860215101</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.75483870967741995</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.71935483870967798</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.74408602150537595</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.71397849462365603</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1307,14 +1531,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.738709677419355</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.69462365591397901</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.75698924731182804</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.71935483870967798</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.70430107526881702</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.73440860215053805</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.70752688172042999</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -1322,14 +1562,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.70107526881720506</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.76451612903225796</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.73978494623655899</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.73333333333333395</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.73548387096774204</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.75913978494623702</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
@@ -1685,17 +1941,18 @@
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1824,44 +2081,108 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="27"/>
+      <c r="D5" s="27">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="F5" s="28">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="H5" s="28">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="J5" s="12">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="N5" s="27">
+        <v>-3.125E-2</v>
+      </c>
+      <c r="O5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="P5" s="28">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="R5" s="28">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="S5" s="27">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
+      <c r="D6" s="29">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H6" s="30">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L6" s="30">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N6" s="29">
+        <v>-2</v>
+      </c>
+      <c r="O6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P6" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R6" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S6" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1871,22 +2192,54 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="29"/>
+      <c r="D7" s="29">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F7" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H7" s="29">
+        <v>16</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N7" s="29">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="O7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P7" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R7" s="30">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="S7" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1894,22 +2247,54 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="D8" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L8" s="19">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N8" s="13">
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="O8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P8" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R8" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="S8" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1921,44 +2306,108 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="29"/>
+      <c r="D9" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="29">
+        <v>1</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0.999</v>
+      </c>
+      <c r="O9" s="29">
+        <v>1</v>
+      </c>
+      <c r="P9" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>1</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="S9" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="29"/>
+      <c r="D10" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="29">
+        <v>1</v>
+      </c>
+      <c r="L10" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="29">
+        <v>1</v>
+      </c>
+      <c r="N10" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="O10" s="29">
+        <v>1</v>
+      </c>
+      <c r="P10" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>1</v>
+      </c>
+      <c r="R10" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="S10" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1968,22 +2417,54 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="29"/>
+      <c r="D11" s="30">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="M11" s="29">
+        <v>1</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="O11" s="29">
+        <v>1</v>
+      </c>
+      <c r="P11" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>1</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="S11" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -1991,22 +2472,54 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="29"/>
+      <c r="D12" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1E-3</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="29">
+        <v>1</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="29">
+        <v>1</v>
+      </c>
+      <c r="L12" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="29">
+        <v>1</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="29">
+        <v>1</v>
+      </c>
+      <c r="P12" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>1</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="S12" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2018,44 +2531,108 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="D13" s="29">
+        <v>2</v>
+      </c>
+      <c r="E13" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G13" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="H13" s="31">
+        <v>1024</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0.2509765625</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="29">
+        <v>3.22265625E-2</v>
+      </c>
+      <c r="L13" s="19">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M13" s="29">
+        <v>0.5009765625</v>
+      </c>
+      <c r="N13" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="P13" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="R13" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S13" s="13">
+        <v>1024.0009765625</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="29"/>
+      <c r="D14" s="29">
+        <v>2</v>
+      </c>
+      <c r="E14" s="29">
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="H14" s="19">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="J14" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K14" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="29">
+        <v>0.2509765625</v>
+      </c>
+      <c r="N14" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="P14" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="R14" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S14" s="29">
+        <v>128.0009765625</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2065,22 +2642,54 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
+      <c r="D15" s="29">
+        <v>4</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1.0009765625</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="30">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="H15" s="30">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I15" s="30">
+        <v>256.0009765625</v>
+      </c>
+      <c r="J15" s="29">
+        <v>1</v>
+      </c>
+      <c r="K15" s="13">
+        <v>32.0009765625</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="M15" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="O15" s="13">
+        <v>32.0009765625</v>
+      </c>
+      <c r="P15" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="R15" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="S15" s="29">
+        <v>1024.0009765625</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -2088,22 +2697,54 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
+      <c r="D16" s="29">
+        <v>8</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="F16" s="29">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1.0009765625</v>
+      </c>
+      <c r="H16" s="13">
+        <v>128</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0.1259765625</v>
+      </c>
+      <c r="J16" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K16" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="L16" s="29">
+        <v>3.125E-2</v>
+      </c>
+      <c r="M16" s="29">
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="N16" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O16" s="29">
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="P16" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="R16" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S16" s="29">
+        <v>1024.0009765625</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2115,44 +2756,108 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="D17" s="29">
+        <v>2</v>
+      </c>
+      <c r="E17" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="F17" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G17" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="H17" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I17" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="J17" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K17" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="L17" s="19">
+        <v>1</v>
+      </c>
+      <c r="M17" s="19">
+        <v>512.0009765625</v>
+      </c>
+      <c r="N17" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O17" s="13">
+        <v>512.0009765625</v>
+      </c>
+      <c r="P17" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="R17" s="29">
+        <v>1</v>
+      </c>
+      <c r="S17" s="29">
+        <v>1024.0009765625</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="29"/>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="F18" s="30">
+        <v>8</v>
+      </c>
+      <c r="G18" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="H18" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="I18" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="J18" s="29">
+        <v>8</v>
+      </c>
+      <c r="K18" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="L18" s="19">
+        <v>2</v>
+      </c>
+      <c r="M18" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="N18" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="P18" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="R18" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="S18" s="29">
+        <v>4.0009765625</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2162,22 +2867,54 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="29"/>
+      <c r="D19" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G19" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="H19" s="31">
+        <v>4</v>
+      </c>
+      <c r="I19" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="J19" s="30">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K19" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="L19" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="M19" s="13">
+        <v>128.0009765625</v>
+      </c>
+      <c r="N19" s="29">
+        <v>-512</v>
+      </c>
+      <c r="O19" s="13">
+        <v>-3.02734375E-2</v>
+      </c>
+      <c r="P19" s="30">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="R19" s="31">
+        <v>8</v>
+      </c>
+      <c r="S19" s="29">
+        <v>512.0009765625</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2185,22 +2922,54 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="13"/>
+      <c r="D20" s="30">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0.1259765625</v>
+      </c>
+      <c r="F20" s="30">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2.0009765625</v>
+      </c>
+      <c r="H20" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="I20" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="J20" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="K20" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="L20" s="31">
+        <v>32</v>
+      </c>
+      <c r="M20" s="13">
+        <v>64.0009765625</v>
+      </c>
+      <c r="N20" s="29">
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="O20" s="13">
+        <v>16.0009765625</v>
+      </c>
+      <c r="P20" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>16.0009765625</v>
+      </c>
+      <c r="R20" s="31">
+        <v>2</v>
+      </c>
+      <c r="S20" s="13">
+        <v>16.0009765625</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -3208,8 +3977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C92042-0542-4E55-9D7F-B323C5541110}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3287,28 +4056,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>7.1289232346677098E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6.4076559082685502E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>5.1493290311305999E-2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>6.8757441194447599E-2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>7.2539702598844499E-2</v>
+      </c>
+      <c r="I5" s="12">
+        <v>4.88297816944126E-2</v>
+      </c>
+      <c r="J5" s="12">
+        <v>4.92619700316234E-2</v>
+      </c>
+      <c r="K5" s="53">
+        <v>5.4593355597590702E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>4.2950973989807198E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>7.7712507505501405E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>5.6716961849039398E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>4.9612778417199403E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <v>6.7854678515837902E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <v>3.9653954655023201E-2</v>
+      </c>
+      <c r="J6" s="13">
+        <v>6.3157742604681294E-2</v>
+      </c>
+      <c r="K6" s="15">
+        <v>9.0255707166340099E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3318,14 +4119,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>3.74032841525292E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>8.8385963069062004E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>7.2787218754661001E-2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>6.2493174817787399E-2</v>
+      </c>
+      <c r="H7" s="13">
+        <v>5.4168130429570097E-2</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.19351187761324901</v>
+      </c>
+      <c r="J7" s="13">
+        <v>5.3415841678169602E-2</v>
+      </c>
+      <c r="K7" s="15">
+        <v>5.1142821453009198E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -3333,14 +4150,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>6.3512706618886597E-2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>8.0177857558310806E-2</v>
+      </c>
+      <c r="F8" s="14">
+        <v>5.2297824994899003E-2</v>
+      </c>
+      <c r="G8" s="14">
+        <v>7.1872513527016402E-2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>5.3835077721917098E-2</v>
+      </c>
+      <c r="I8" s="14">
+        <v>7.44623116769772E-2</v>
+      </c>
+      <c r="J8" s="14">
+        <v>4.2181370236343399E-2</v>
+      </c>
+      <c r="K8" s="56">
+        <v>6.9906257256687601E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3352,28 +4185,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>3.9992676710432599E-2</v>
+      </c>
+      <c r="E9" s="58">
+        <v>4.7617671166976398E-2</v>
+      </c>
+      <c r="F9" s="58">
+        <v>6.6757174466494401E-2</v>
+      </c>
+      <c r="G9" s="58">
+        <v>8.5090541796266198E-2</v>
+      </c>
+      <c r="H9" s="58">
+        <v>2.70365909184891E-2</v>
+      </c>
+      <c r="I9" s="58">
+        <v>2.9030045492926999E-2</v>
+      </c>
+      <c r="J9" s="58">
+        <v>5.55382098022403E-2</v>
+      </c>
+      <c r="K9" s="59">
+        <v>4.88297816944126E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>6.9315697511877106E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5.0802579612622203E-2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5.1305836866743601E-2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>4.2409174072398699E-2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>5.1493290311305999E-2</v>
+      </c>
+      <c r="I10" s="13">
+        <v>3.8336177654827101E-2</v>
+      </c>
+      <c r="J10" s="13">
+        <v>4.4709580299677899E-2</v>
+      </c>
+      <c r="K10" s="15">
+        <v>7.4367361724897593E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -3383,14 +4248,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>5.2248672892879003E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3.4172577595850899E-2</v>
+      </c>
+      <c r="F11" s="13">
+        <v>4.9157546024354702E-2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>4.2409174072398699E-2</v>
+      </c>
+      <c r="H11" s="13">
+        <v>5.1989861976971301E-2</v>
+      </c>
+      <c r="I11" s="13">
+        <v>5.0192010656445303E-2</v>
+      </c>
+      <c r="J11" s="13">
+        <v>4.20440954799002E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <v>7.7248251119183903E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -3398,14 +4279,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>5.9210341315503102E-2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4.0566763632748103E-2</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3.7334528057347001E-2</v>
+      </c>
+      <c r="G12" s="14">
+        <v>4.0566763632748103E-2</v>
+      </c>
+      <c r="H12" s="14">
+        <v>4.93531597937161E-2</v>
+      </c>
+      <c r="I12" s="14">
+        <v>4.0232875126601501E-2</v>
+      </c>
+      <c r="J12" s="14">
+        <v>4.6401583749626503E-2</v>
+      </c>
+      <c r="K12" s="56">
+        <v>4.3144951930621199E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3417,28 +4314,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>6.0071941214668099E-2</v>
+      </c>
+      <c r="E13" s="58">
+        <v>2.7036590918488999E-2</v>
+      </c>
+      <c r="F13" s="58">
+        <v>3.6552111208550397E-2</v>
+      </c>
+      <c r="G13" s="58">
+        <v>5.6262127226806E-2</v>
+      </c>
+      <c r="H13" s="58">
+        <v>6.2534275233159603E-2</v>
+      </c>
+      <c r="I13" s="58">
+        <v>4.9457170783255497E-2</v>
+      </c>
+      <c r="J13" s="58">
+        <v>2.0401791355925E-2</v>
+      </c>
+      <c r="K13" s="59">
+        <v>5.6044787710078398E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>4.5408098420501503E-2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>4.8100839166654599E-2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>6.2862111163852999E-2</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5.2920512760693199E-2</v>
+      </c>
+      <c r="H14" s="13">
+        <v>4.1567790339581398E-2</v>
+      </c>
+      <c r="I14" s="13">
+        <v>5.3835077721917098E-2</v>
+      </c>
+      <c r="J14" s="13">
+        <v>4.1798938314303202E-2</v>
+      </c>
+      <c r="K14" s="15">
+        <v>4.3736411357079903E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3448,14 +4377,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>5.9588824202495803E-2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>5.2725951393357097E-2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>5.1989861976971301E-2</v>
+      </c>
+      <c r="G15" s="13">
+        <v>4.4203881271170899E-2</v>
+      </c>
+      <c r="H15" s="13">
+        <v>5.4839880981704697E-2</v>
+      </c>
+      <c r="I15" s="13">
+        <v>6.5071287271169703E-2</v>
+      </c>
+      <c r="J15" s="13">
+        <v>5.4073181836978103E-2</v>
+      </c>
+      <c r="K15" s="15">
+        <v>5.57690429242578E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -3463,14 +4408,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>4.6470746977384798E-2</v>
+      </c>
+      <c r="E16" s="14">
+        <v>6.8043741792598103E-2</v>
+      </c>
+      <c r="F16" s="14">
+        <v>6.0572416270330103E-2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>4.0056870454332601E-2</v>
+      </c>
+      <c r="H16" s="14">
+        <v>3.6358292911586397E-2</v>
+      </c>
+      <c r="I16" s="14">
+        <v>6.0868615671265301E-2</v>
+      </c>
+      <c r="J16" s="14">
+        <v>7.5660357287218705E-2</v>
+      </c>
+      <c r="K16" s="56">
+        <v>5.1742171849802399E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3482,28 +4443,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>3.7745185998281798E-2</v>
+      </c>
+      <c r="E17" s="58">
+        <v>4.3025684385441201E-2</v>
+      </c>
+      <c r="F17" s="58">
+        <v>6.3350684144188402E-2</v>
+      </c>
+      <c r="G17" s="58">
+        <v>6.9768293322616498E-2</v>
+      </c>
+      <c r="H17" s="58">
+        <v>6.04450293443234E-2</v>
+      </c>
+      <c r="I17" s="58">
+        <v>4.0056870454332601E-2</v>
+      </c>
+      <c r="J17" s="58">
+        <v>6.9139404039523705E-2</v>
+      </c>
+      <c r="K17" s="59">
+        <v>5.2689391154549799E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>7.5728244566275305E-2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>3.9653954655023201E-2</v>
+      </c>
+      <c r="F18" s="13">
+        <v>5.8851256635910502E-2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>6.3147571456760504E-2</v>
+      </c>
+      <c r="H18" s="13">
+        <v>5.3114361441842901E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <v>6.07101171407919E-2</v>
+      </c>
+      <c r="J18" s="13">
+        <v>7.3594625191171895E-2</v>
+      </c>
+      <c r="K18" s="15">
+        <v>6.5347097778226906E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3513,14 +4506,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>6.06254151572478E-2</v>
+      </c>
+      <c r="E19" s="13">
+        <v>7.5388196846651795E-2</v>
+      </c>
+      <c r="F19" s="13">
+        <v>6.1498524987891698E-2</v>
+      </c>
+      <c r="G19" s="13">
+        <v>6.0029154926323401E-2</v>
+      </c>
+      <c r="H19" s="13">
+        <v>5.0549072144271699E-2</v>
+      </c>
+      <c r="I19" s="13">
+        <v>4.9729164607568502E-2</v>
+      </c>
+      <c r="J19" s="13">
+        <v>5.9771794020160397E-2</v>
+      </c>
+      <c r="K19" s="15">
+        <v>6.1831852768022499E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3528,14 +4537,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>4.9353159793716198E-2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>5.1555623332929998E-2</v>
+      </c>
+      <c r="F20" s="14">
+        <v>6.9092936258187798E-2</v>
+      </c>
+      <c r="G20" s="14">
+        <v>8.1858651891728695E-2</v>
+      </c>
+      <c r="H20" s="14">
+        <v>7.3419857371007105E-2</v>
+      </c>
+      <c r="I20" s="14">
+        <v>7.4806568305058399E-2</v>
+      </c>
+      <c r="J20" s="14">
+        <v>6.8794799220129502E-2</v>
+      </c>
+      <c r="K20" s="56">
+        <v>6.4952724244153701E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
@@ -3959,28 +4984,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="D5" s="13">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.79032258064516103</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.69892473118279597</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="D6" s="13">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.76881720430107503</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3990,14 +5047,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="D7" s="13">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.68279569892473102</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.79032258064516103</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.72043010752688197</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -4005,14 +5078,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="D8" s="13">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.79032258064516103</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.79032258064516103</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.74193548387096797</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4024,28 +5113,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="D9" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.76344086021505397</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="D10" s="13">
+        <v>0.77956989247311803</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.77956989247311803</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.74731182795698903</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -4055,14 +5176,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="D11" s="13">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.77956989247311803</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.69892473118279597</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4070,14 +5207,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="D12" s="13">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.79032258064516103</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.80107526881720403</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.77956989247311803</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.75806451612903203</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4089,28 +5242,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="D13" s="13">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0.74193548387096797</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="D14" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.78494623655913998</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -4120,14 +5305,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="D15" s="13">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.70430107526881702</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.73118279569892497</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -4135,14 +5336,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="D16" s="13">
+        <v>0.77956989247311803</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.70430107526881702</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.77956989247311803</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.79569892473118298</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4154,28 +5371,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="D17" s="13">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0.73655913978494603</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="D18" s="13">
+        <v>0.77956989247311803</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.70967741935483897</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -4185,14 +5434,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="D19" s="13">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.69354838709677402</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0.69892473118279597</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4200,14 +5465,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="D20" s="13">
+        <v>0.69354838709677402</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.77956989247311803</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -4473,28 +5754,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.79569892473118298</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.88172043010752699</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4504,14 +5817,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.88172043010752699</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.77419354838709697</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -4519,14 +5848,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.82795698924731198</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4538,28 +5883,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.80645161290322598</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.89247311827956999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.90322580645161299</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -4569,14 +5946,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.88172043010752699</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.84946236559139798</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4584,14 +5977,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.81720430107526898</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4603,28 +6012,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.80645161290322598</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.84946236559139798</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -4634,14 +6075,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.79569892473118298</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -4649,14 +6106,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.84946236559139798</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4668,28 +6141,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.86021505376344098</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.79569892473118298</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -4699,14 +6204,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.81720430107526898</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4714,14 +6235,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.84946236559139798</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.86021505376344098</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.83870967741935498</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
@@ -5145,28 +6682,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="D5" s="29">
+        <v>7</v>
+      </c>
+      <c r="E5" s="29">
+        <v>12</v>
+      </c>
+      <c r="F5" s="29">
+        <v>7</v>
+      </c>
+      <c r="G5" s="29">
+        <v>32</v>
+      </c>
+      <c r="H5" s="29">
+        <v>23</v>
+      </c>
+      <c r="I5" s="29">
+        <v>173</v>
+      </c>
+      <c r="J5" s="29">
+        <v>4</v>
+      </c>
+      <c r="K5" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="D6" s="29">
+        <v>10</v>
+      </c>
+      <c r="E6" s="29">
+        <v>23</v>
+      </c>
+      <c r="F6" s="29">
+        <v>18</v>
+      </c>
+      <c r="G6" s="29">
+        <v>30</v>
+      </c>
+      <c r="H6" s="29">
+        <v>30</v>
+      </c>
+      <c r="I6" s="29">
+        <v>155</v>
+      </c>
+      <c r="J6" s="29">
+        <v>6</v>
+      </c>
+      <c r="K6" s="29">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5176,14 +6745,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="D7" s="29">
+        <v>14</v>
+      </c>
+      <c r="E7" s="29">
+        <v>24</v>
+      </c>
+      <c r="F7" s="29">
+        <v>14</v>
+      </c>
+      <c r="G7" s="29">
+        <v>6</v>
+      </c>
+      <c r="H7" s="29">
+        <v>40</v>
+      </c>
+      <c r="I7" s="29">
+        <v>173</v>
+      </c>
+      <c r="J7" s="29">
+        <v>5</v>
+      </c>
+      <c r="K7" s="29">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -5191,14 +6776,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="D8" s="29">
+        <v>14</v>
+      </c>
+      <c r="E8" s="29">
+        <v>23</v>
+      </c>
+      <c r="F8" s="29">
+        <v>9</v>
+      </c>
+      <c r="G8" s="29">
+        <v>28</v>
+      </c>
+      <c r="H8" s="29">
+        <v>21</v>
+      </c>
+      <c r="I8" s="29">
+        <v>173</v>
+      </c>
+      <c r="J8" s="29">
+        <v>5</v>
+      </c>
+      <c r="K8" s="29">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5210,28 +6811,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="D9" s="29">
+        <v>5</v>
+      </c>
+      <c r="E9" s="29">
+        <v>39</v>
+      </c>
+      <c r="F9" s="29">
+        <v>25</v>
+      </c>
+      <c r="G9" s="29">
+        <v>30</v>
+      </c>
+      <c r="H9" s="29">
+        <v>13</v>
+      </c>
+      <c r="I9" s="29">
+        <v>173</v>
+      </c>
+      <c r="J9" s="29">
+        <v>12</v>
+      </c>
+      <c r="K9" s="29">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="D10" s="29">
+        <v>37</v>
+      </c>
+      <c r="E10" s="29">
+        <v>18</v>
+      </c>
+      <c r="F10" s="29">
+        <v>41</v>
+      </c>
+      <c r="G10" s="29">
+        <v>24</v>
+      </c>
+      <c r="H10" s="29">
+        <v>22</v>
+      </c>
+      <c r="I10" s="29">
+        <v>173</v>
+      </c>
+      <c r="J10" s="29">
+        <v>4</v>
+      </c>
+      <c r="K10" s="29">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5241,14 +6874,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="D11" s="29">
+        <v>6</v>
+      </c>
+      <c r="E11" s="29">
+        <v>39</v>
+      </c>
+      <c r="F11" s="29">
+        <v>19</v>
+      </c>
+      <c r="G11" s="29">
+        <v>31</v>
+      </c>
+      <c r="H11" s="29">
+        <v>12</v>
+      </c>
+      <c r="I11" s="29">
+        <v>173</v>
+      </c>
+      <c r="J11" s="29">
+        <v>17</v>
+      </c>
+      <c r="K11" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5256,14 +6905,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="D12" s="29">
+        <v>7</v>
+      </c>
+      <c r="E12" s="29">
+        <v>15</v>
+      </c>
+      <c r="F12" s="29">
+        <v>28</v>
+      </c>
+      <c r="G12" s="29">
+        <v>33</v>
+      </c>
+      <c r="H12" s="29">
+        <v>7</v>
+      </c>
+      <c r="I12" s="29">
+        <v>173</v>
+      </c>
+      <c r="J12" s="29">
+        <v>7</v>
+      </c>
+      <c r="K12" s="29">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -5275,28 +6940,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="D13" s="29">
+        <v>19</v>
+      </c>
+      <c r="E13" s="29">
+        <v>13</v>
+      </c>
+      <c r="F13" s="29">
+        <v>7</v>
+      </c>
+      <c r="G13" s="29">
+        <v>45</v>
+      </c>
+      <c r="H13" s="29">
+        <v>13</v>
+      </c>
+      <c r="I13" s="29">
+        <v>18</v>
+      </c>
+      <c r="J13" s="29">
+        <v>32</v>
+      </c>
+      <c r="K13" s="29">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="D14" s="29">
+        <v>17</v>
+      </c>
+      <c r="E14" s="29">
+        <v>14</v>
+      </c>
+      <c r="F14" s="29">
+        <v>20</v>
+      </c>
+      <c r="G14" s="29">
+        <v>32</v>
+      </c>
+      <c r="H14" s="29">
+        <v>15</v>
+      </c>
+      <c r="I14" s="29">
+        <v>18</v>
+      </c>
+      <c r="J14" s="29">
+        <v>23</v>
+      </c>
+      <c r="K14" s="29">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -5306,14 +7003,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="D15" s="29">
+        <v>17</v>
+      </c>
+      <c r="E15" s="29">
+        <v>26</v>
+      </c>
+      <c r="F15" s="29">
+        <v>20</v>
+      </c>
+      <c r="G15" s="29">
+        <v>11</v>
+      </c>
+      <c r="H15" s="29">
+        <v>15</v>
+      </c>
+      <c r="I15" s="29">
+        <v>36</v>
+      </c>
+      <c r="J15" s="29">
+        <v>8</v>
+      </c>
+      <c r="K15" s="29">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -5321,14 +7034,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="D16" s="29">
+        <v>9</v>
+      </c>
+      <c r="E16" s="29">
+        <v>21</v>
+      </c>
+      <c r="F16" s="29">
+        <v>32</v>
+      </c>
+      <c r="G16" s="29">
+        <v>14</v>
+      </c>
+      <c r="H16" s="29">
+        <v>13</v>
+      </c>
+      <c r="I16" s="29">
+        <v>12</v>
+      </c>
+      <c r="J16" s="29">
+        <v>9</v>
+      </c>
+      <c r="K16" s="29">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5340,28 +7069,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="D17" s="29">
+        <v>8</v>
+      </c>
+      <c r="E17" s="29">
+        <v>23</v>
+      </c>
+      <c r="F17" s="29">
+        <v>18</v>
+      </c>
+      <c r="G17" s="29">
+        <v>128</v>
+      </c>
+      <c r="H17" s="29">
+        <v>170</v>
+      </c>
+      <c r="I17" s="29">
+        <v>22</v>
+      </c>
+      <c r="J17" s="29">
+        <v>11</v>
+      </c>
+      <c r="K17" s="29">
+        <v>106</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="D18" s="29">
+        <v>6</v>
+      </c>
+      <c r="E18" s="29">
+        <v>34</v>
+      </c>
+      <c r="F18" s="29">
+        <v>33</v>
+      </c>
+      <c r="G18" s="29">
+        <v>92</v>
+      </c>
+      <c r="H18" s="29">
+        <v>10</v>
+      </c>
+      <c r="I18" s="29">
+        <v>30</v>
+      </c>
+      <c r="J18" s="29">
+        <v>17</v>
+      </c>
+      <c r="K18" s="29">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -5371,14 +7132,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="D19" s="29">
+        <v>11</v>
+      </c>
+      <c r="E19" s="29">
+        <v>10</v>
+      </c>
+      <c r="F19" s="29">
+        <v>21</v>
+      </c>
+      <c r="G19" s="29">
+        <v>3</v>
+      </c>
+      <c r="H19" s="29">
+        <v>13</v>
+      </c>
+      <c r="I19" s="29">
+        <v>7</v>
+      </c>
+      <c r="J19" s="29">
+        <v>5</v>
+      </c>
+      <c r="K19" s="29">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -5386,14 +7163,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="D20" s="29">
+        <v>6</v>
+      </c>
+      <c r="E20" s="29">
+        <v>30</v>
+      </c>
+      <c r="F20" s="29">
+        <v>21</v>
+      </c>
+      <c r="G20" s="29">
+        <v>8</v>
+      </c>
+      <c r="H20" s="29">
+        <v>22</v>
+      </c>
+      <c r="I20" s="29">
+        <v>57</v>
+      </c>
+      <c r="J20" s="29">
+        <v>20</v>
+      </c>
+      <c r="K20" s="29">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -5659,28 +7452,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="E5" s="19">
+        <v>14.5</v>
+      </c>
+      <c r="F5" s="19">
+        <v>17.7</v>
+      </c>
+      <c r="G5" s="19">
+        <v>19</v>
+      </c>
+      <c r="H5" s="19">
+        <v>18.3</v>
+      </c>
+      <c r="I5" s="19">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="J5" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K5" s="19">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="E6" s="19">
+        <v>19.5</v>
+      </c>
+      <c r="F6" s="19">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G6" s="19">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H6" s="19">
+        <v>20.9</v>
+      </c>
+      <c r="I6" s="19">
+        <v>148.6</v>
+      </c>
+      <c r="J6" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="K6" s="19">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5690,14 +7515,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E7" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="F7" s="19">
+        <v>13.1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>19</v>
+      </c>
+      <c r="H7" s="19">
+        <v>17.7</v>
+      </c>
+      <c r="I7" s="19">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="J7" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -5705,14 +7546,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>10.7</v>
+      </c>
+      <c r="E8" s="19">
+        <v>17.2</v>
+      </c>
+      <c r="F8" s="19">
+        <v>11</v>
+      </c>
+      <c r="G8" s="19">
+        <v>21</v>
+      </c>
+      <c r="H8" s="19">
+        <v>14.8</v>
+      </c>
+      <c r="I8" s="19">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="J8" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="K8" s="19">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5724,28 +7581,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>10.4</v>
+      </c>
+      <c r="E9" s="19">
+        <v>19.2</v>
+      </c>
+      <c r="F9" s="19">
+        <v>20</v>
+      </c>
+      <c r="G9" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="H9" s="19">
+        <v>15.2</v>
+      </c>
+      <c r="I9" s="19">
+        <v>173</v>
+      </c>
+      <c r="J9" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="K9" s="19">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>17</v>
+      </c>
+      <c r="E10" s="19">
+        <v>29.9</v>
+      </c>
+      <c r="F10" s="19">
+        <v>18.8</v>
+      </c>
+      <c r="G10" s="19">
+        <v>23.3</v>
+      </c>
+      <c r="H10" s="19">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I10" s="19">
+        <v>173</v>
+      </c>
+      <c r="J10" s="19">
+        <v>10.6</v>
+      </c>
+      <c r="K10" s="19">
+        <v>28.4</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5755,14 +7644,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>12</v>
+      </c>
+      <c r="E11" s="19">
+        <v>20.9</v>
+      </c>
+      <c r="F11" s="19">
+        <v>24.7</v>
+      </c>
+      <c r="G11" s="19">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H11" s="19">
+        <v>15.3</v>
+      </c>
+      <c r="I11" s="19">
+        <v>173</v>
+      </c>
+      <c r="J11" s="19">
+        <v>10.6</v>
+      </c>
+      <c r="K11" s="19">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5770,14 +7675,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>20.2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>23.1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>22.4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>24.5</v>
+      </c>
+      <c r="H12" s="19">
+        <v>21.1</v>
+      </c>
+      <c r="I12" s="19">
+        <v>173</v>
+      </c>
+      <c r="J12" s="19">
+        <v>11.7</v>
+      </c>
+      <c r="K12" s="19">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -5789,28 +7710,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E13" s="19">
+        <v>17.7</v>
+      </c>
+      <c r="F13" s="19">
+        <v>25.8</v>
+      </c>
+      <c r="G13" s="19">
+        <v>22.9</v>
+      </c>
+      <c r="H13" s="19">
+        <v>11.1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>11.8</v>
+      </c>
+      <c r="J13" s="19">
+        <v>10.8</v>
+      </c>
+      <c r="K13" s="19">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>12.8</v>
+      </c>
+      <c r="E14" s="19">
+        <v>21.6</v>
+      </c>
+      <c r="F14" s="19">
+        <v>21.5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>28.6</v>
+      </c>
+      <c r="H14" s="19">
+        <v>30.9</v>
+      </c>
+      <c r="I14" s="19">
+        <v>23.1</v>
+      </c>
+      <c r="J14" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="K14" s="19">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -5820,14 +7773,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>14.3</v>
+      </c>
+      <c r="E15" s="19">
+        <v>14</v>
+      </c>
+      <c r="F15" s="19">
+        <v>18.8</v>
+      </c>
+      <c r="G15" s="19">
+        <v>17</v>
+      </c>
+      <c r="H15" s="19">
+        <v>15.9</v>
+      </c>
+      <c r="I15" s="19">
+        <v>21</v>
+      </c>
+      <c r="J15" s="19">
+        <v>17.3</v>
+      </c>
+      <c r="K15" s="19">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -5835,14 +7804,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E16" s="19">
+        <v>15.2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>15.6</v>
+      </c>
+      <c r="G16" s="19">
+        <v>27.3</v>
+      </c>
+      <c r="H16" s="19">
+        <v>18.3</v>
+      </c>
+      <c r="I16" s="19">
+        <v>17.2</v>
+      </c>
+      <c r="J16" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="K16" s="19">
+        <v>19.600000000000001</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5854,28 +7839,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E17" s="19">
+        <v>20.9</v>
+      </c>
+      <c r="F17" s="19">
+        <v>22.2</v>
+      </c>
+      <c r="G17" s="19">
+        <v>57.2</v>
+      </c>
+      <c r="H17" s="19">
+        <v>45.3</v>
+      </c>
+      <c r="I17" s="19">
+        <v>25.1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>8</v>
+      </c>
+      <c r="K17" s="19">
+        <v>34.1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="E18" s="19">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F18" s="19">
+        <v>25.9</v>
+      </c>
+      <c r="G18" s="19">
+        <v>43.6</v>
+      </c>
+      <c r="H18" s="19">
+        <v>28.5</v>
+      </c>
+      <c r="I18" s="19">
+        <v>23.4</v>
+      </c>
+      <c r="J18" s="19">
+        <v>14.4</v>
+      </c>
+      <c r="K18" s="19">
+        <v>21.9</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -5885,14 +7902,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>9.6</v>
+      </c>
+      <c r="E19" s="19">
+        <v>12</v>
+      </c>
+      <c r="F19" s="19">
+        <v>20.7</v>
+      </c>
+      <c r="G19" s="19">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H19" s="19">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I19" s="19">
+        <v>14.1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="K19" s="19">
+        <v>17.3</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -5900,14 +7933,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>11.2</v>
+      </c>
+      <c r="E20" s="19">
+        <v>28.4</v>
+      </c>
+      <c r="F20" s="19">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G20" s="19">
+        <v>24.2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I20" s="19">
+        <v>23.2</v>
+      </c>
+      <c r="J20" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="K20" s="19">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -6173,28 +8222,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29">
+        <v>1</v>
+      </c>
+      <c r="J5" s="29">
+        <v>1</v>
+      </c>
+      <c r="K5" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="D6" s="29">
+        <v>3</v>
+      </c>
+      <c r="E6" s="29">
+        <v>6</v>
+      </c>
+      <c r="F6" s="29">
+        <v>4</v>
+      </c>
+      <c r="G6" s="29">
+        <v>4</v>
+      </c>
+      <c r="H6" s="29">
+        <v>7</v>
+      </c>
+      <c r="I6" s="29">
+        <v>4</v>
+      </c>
+      <c r="J6" s="29">
+        <v>4</v>
+      </c>
+      <c r="K6" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -6204,14 +8285,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -6219,14 +8316,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="D8" s="29">
+        <v>5</v>
+      </c>
+      <c r="E8" s="29">
+        <v>10</v>
+      </c>
+      <c r="F8" s="29">
+        <v>3</v>
+      </c>
+      <c r="G8" s="29">
+        <v>9</v>
+      </c>
+      <c r="H8" s="29">
+        <v>9</v>
+      </c>
+      <c r="I8" s="29">
+        <v>6</v>
+      </c>
+      <c r="J8" s="29">
+        <v>8</v>
+      </c>
+      <c r="K8" s="29">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6238,28 +8351,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="29">
+        <v>1</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="D10" s="29">
+        <v>5</v>
+      </c>
+      <c r="E10" s="29">
+        <v>9</v>
+      </c>
+      <c r="F10" s="29">
+        <v>9</v>
+      </c>
+      <c r="G10" s="29">
+        <v>8</v>
+      </c>
+      <c r="H10" s="29">
+        <v>8</v>
+      </c>
+      <c r="I10" s="29">
+        <v>7</v>
+      </c>
+      <c r="J10" s="29">
+        <v>3</v>
+      </c>
+      <c r="K10" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -6269,14 +8414,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="D11" s="29">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -6284,14 +8445,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="D12" s="29">
+        <v>4</v>
+      </c>
+      <c r="E12" s="29">
+        <v>4</v>
+      </c>
+      <c r="F12" s="29">
+        <v>6</v>
+      </c>
+      <c r="G12" s="29">
+        <v>9</v>
+      </c>
+      <c r="H12" s="29">
+        <v>7</v>
+      </c>
+      <c r="I12" s="29">
+        <v>6</v>
+      </c>
+      <c r="J12" s="29">
+        <v>6</v>
+      </c>
+      <c r="K12" s="29">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -6303,28 +8480,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1</v>
+      </c>
+      <c r="G13" s="29">
+        <v>1</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1</v>
+      </c>
+      <c r="J13" s="29">
+        <v>1</v>
+      </c>
+      <c r="K13" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="D14" s="29">
+        <v>4</v>
+      </c>
+      <c r="E14" s="29">
+        <v>9</v>
+      </c>
+      <c r="F14" s="29">
+        <v>5</v>
+      </c>
+      <c r="G14" s="29">
+        <v>9</v>
+      </c>
+      <c r="H14" s="29">
+        <v>9</v>
+      </c>
+      <c r="I14" s="29">
+        <v>10</v>
+      </c>
+      <c r="J14" s="29">
+        <v>7</v>
+      </c>
+      <c r="K14" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -6334,14 +8543,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>1</v>
+      </c>
+      <c r="G15" s="29">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29">
+        <v>1</v>
+      </c>
+      <c r="I15" s="29">
+        <v>1</v>
+      </c>
+      <c r="J15" s="29">
+        <v>1</v>
+      </c>
+      <c r="K15" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -6349,14 +8574,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="D16" s="29">
+        <v>3</v>
+      </c>
+      <c r="E16" s="29">
+        <v>9</v>
+      </c>
+      <c r="F16" s="29">
+        <v>8</v>
+      </c>
+      <c r="G16" s="29">
+        <v>9</v>
+      </c>
+      <c r="H16" s="29">
+        <v>9</v>
+      </c>
+      <c r="I16" s="29">
+        <v>6</v>
+      </c>
+      <c r="J16" s="29">
+        <v>8</v>
+      </c>
+      <c r="K16" s="29">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -6368,28 +8609,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29">
+        <v>1</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1</v>
+      </c>
+      <c r="I17" s="29">
+        <v>1</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1</v>
+      </c>
+      <c r="K17" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="D18" s="29">
+        <v>9</v>
+      </c>
+      <c r="E18" s="29">
+        <v>5</v>
+      </c>
+      <c r="F18" s="29">
+        <v>9</v>
+      </c>
+      <c r="G18" s="29">
+        <v>10</v>
+      </c>
+      <c r="H18" s="29">
+        <v>4</v>
+      </c>
+      <c r="I18" s="29">
+        <v>4</v>
+      </c>
+      <c r="J18" s="29">
+        <v>2</v>
+      </c>
+      <c r="K18" s="29">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -6399,14 +8672,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="29">
+        <v>1</v>
+      </c>
+      <c r="H19" s="29">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29">
+        <v>1</v>
+      </c>
+      <c r="K19" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -6414,14 +8703,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="D20" s="29">
+        <v>3</v>
+      </c>
+      <c r="E20" s="29">
+        <v>9</v>
+      </c>
+      <c r="F20" s="29">
+        <v>6</v>
+      </c>
+      <c r="G20" s="29">
+        <v>2</v>
+      </c>
+      <c r="H20" s="29">
+        <v>6</v>
+      </c>
+      <c r="I20" s="29">
+        <v>5</v>
+      </c>
+      <c r="J20" s="29">
+        <v>9</v>
+      </c>
+      <c r="K20" s="29">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -6687,28 +8992,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>4.7</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="G6" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="J6" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="K6" s="19">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -6718,14 +9055,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -6733,14 +9086,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="F8" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="I8" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="J8" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="K8" s="19">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6752,28 +9121,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="E10" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="F10" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G10" s="19">
+        <v>7.8</v>
+      </c>
+      <c r="H10" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="I10" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="J10" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K10" s="19">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -6783,14 +9184,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -6798,14 +9215,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="E12" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="F12" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="G12" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="H12" s="19">
+        <v>6</v>
+      </c>
+      <c r="I12" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="J12" s="19">
+        <v>6.8</v>
+      </c>
+      <c r="K12" s="19">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -6817,28 +9250,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>8</v>
+      </c>
+      <c r="E14" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F14" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="H14" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="I14" s="19">
+        <v>8.9</v>
+      </c>
+      <c r="J14" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="K14" s="19">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -6848,14 +9313,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -6863,14 +9344,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="E16" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>6.8</v>
+      </c>
+      <c r="G16" s="19">
+        <v>7.1</v>
+      </c>
+      <c r="H16" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="I16" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="J16" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="K16" s="19">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -6882,28 +9379,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>5</v>
+      </c>
+      <c r="E18" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="F18" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="G18" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H18" s="19">
+        <v>5</v>
+      </c>
+      <c r="I18" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J18" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K18" s="19">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -6913,14 +9442,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -6928,14 +9473,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="E20" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="F20" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H20" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="I20" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="J20" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="K20" s="19">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -7132,17 +9693,15 @@
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7258,38 +9817,90 @@
       <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
+      <c r="D5" s="50">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E5" s="37">
+        <v>32</v>
+      </c>
+      <c r="F5" s="38">
+        <v>4</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1</v>
+      </c>
+      <c r="H5" s="38">
+        <v>1</v>
+      </c>
+      <c r="I5" s="38">
+        <v>32</v>
+      </c>
+      <c r="J5" s="38">
+        <v>16</v>
+      </c>
+      <c r="K5" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="L5" s="38">
+        <v>32</v>
+      </c>
+      <c r="M5" s="33">
+        <v>2</v>
+      </c>
+      <c r="N5" s="36">
+        <v>3.125E-2</v>
+      </c>
+      <c r="O5" s="38">
+        <v>64</v>
+      </c>
+      <c r="P5" s="39">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="15"/>
+      <c r="D6" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E6" s="32">
+        <v>8</v>
+      </c>
+      <c r="F6" s="29">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G6" s="30">
+        <v>512</v>
+      </c>
+      <c r="H6" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="I6" s="30">
+        <v>16</v>
+      </c>
+      <c r="J6" s="31">
+        <v>8</v>
+      </c>
+      <c r="K6" s="19">
+        <v>3</v>
+      </c>
+      <c r="L6" s="31">
+        <v>16</v>
+      </c>
+      <c r="M6" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N6" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O6" s="19">
+        <v>1</v>
+      </c>
+      <c r="P6" s="15">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -7299,19 +9910,45 @@
       <c r="C7" s="22">
         <v>1</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="44"/>
+      <c r="D7" s="41">
+        <v>4</v>
+      </c>
+      <c r="E7" s="19">
+        <v>8</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1024</v>
+      </c>
+      <c r="H7" s="29">
+        <v>2.8</v>
+      </c>
+      <c r="I7" s="30">
+        <v>64</v>
+      </c>
+      <c r="J7" s="32">
+        <v>2</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L7" s="29">
+        <v>32</v>
+      </c>
+      <c r="M7" s="32">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="32">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P7" s="44">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -7319,19 +9956,45 @@
       <c r="C8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="44"/>
+      <c r="D8" s="41">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E8" s="32">
+        <v>4</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="H8" s="29">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>4</v>
+      </c>
+      <c r="J8" s="32">
+        <v>8</v>
+      </c>
+      <c r="K8" s="29">
+        <v>3</v>
+      </c>
+      <c r="L8" s="29">
+        <v>256</v>
+      </c>
+      <c r="M8" s="32">
+        <v>4</v>
+      </c>
+      <c r="N8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -7343,38 +10006,90 @@
       <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="43"/>
+      <c r="D9" s="40">
+        <v>4</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="29">
+        <v>2.8</v>
+      </c>
+      <c r="I9" s="29">
+        <v>8</v>
+      </c>
+      <c r="J9" s="32">
+        <v>2</v>
+      </c>
+      <c r="K9" s="19">
+        <v>2</v>
+      </c>
+      <c r="L9" s="29">
+        <v>1024</v>
+      </c>
+      <c r="M9" s="32">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="N9" s="13">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O9" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="P9" s="43">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="44"/>
+      <c r="D10" s="40">
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="29">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1</v>
+      </c>
+      <c r="I10" s="31">
+        <v>8</v>
+      </c>
+      <c r="J10" s="32">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="32">
+        <v>4</v>
+      </c>
+      <c r="N10" s="19">
+        <v>-0.5</v>
+      </c>
+      <c r="O10" s="29">
+        <v>512</v>
+      </c>
+      <c r="P10" s="44">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -7384,19 +10099,45 @@
       <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="34"/>
+      <c r="D11" s="41">
+        <v>0.125</v>
+      </c>
+      <c r="E11" s="19">
+        <v>2</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29">
+        <v>8</v>
+      </c>
+      <c r="J11" s="29">
+        <v>2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L11" s="29">
+        <v>64</v>
+      </c>
+      <c r="M11" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="13">
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="O11" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="P11" s="34">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -7404,19 +10145,45 @@
       <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="43"/>
+      <c r="D12" s="41">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <v>256</v>
+      </c>
+      <c r="G12" s="13">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31">
+        <v>16</v>
+      </c>
+      <c r="J12" s="32">
+        <v>2</v>
+      </c>
+      <c r="K12" s="29">
+        <v>3</v>
+      </c>
+      <c r="L12" s="29">
+        <v>3.125E-2</v>
+      </c>
+      <c r="M12" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O12" s="31">
+        <v>64</v>
+      </c>
+      <c r="P12" s="43">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -7428,38 +10195,90 @@
       <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="45"/>
+      <c r="D13" s="41">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E13" s="29">
+        <v>16</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="30">
+        <v>64</v>
+      </c>
+      <c r="H13" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1</v>
+      </c>
+      <c r="J13" s="32">
+        <v>64</v>
+      </c>
+      <c r="K13" s="19">
+        <v>3</v>
+      </c>
+      <c r="L13" s="29">
+        <v>4</v>
+      </c>
+      <c r="M13" s="13">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="32">
+        <v>1024</v>
+      </c>
+      <c r="P13" s="45">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="15"/>
+      <c r="D14" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="32">
+        <v>512</v>
+      </c>
+      <c r="J14" s="32">
+        <v>4</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L14" s="32">
+        <v>2</v>
+      </c>
+      <c r="M14" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="N14" s="30">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O14" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P14" s="15">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -7469,19 +10288,45 @@
       <c r="C15" s="22">
         <v>1</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="43"/>
+      <c r="D15" s="41">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E15" s="29">
+        <v>4</v>
+      </c>
+      <c r="F15" s="30">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G15" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="29">
+        <v>4</v>
+      </c>
+      <c r="J15" s="29">
+        <v>8</v>
+      </c>
+      <c r="K15" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="L15" s="32">
+        <v>4</v>
+      </c>
+      <c r="M15" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N15" s="30">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O15" s="32">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="P15" s="43">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -7489,19 +10334,45 @@
       <c r="C16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="45"/>
+      <c r="D16" s="40">
+        <v>0.125</v>
+      </c>
+      <c r="E16" s="29">
+        <v>2</v>
+      </c>
+      <c r="F16" s="29">
+        <v>128</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="29">
+        <v>1024</v>
+      </c>
+      <c r="J16" s="32">
+        <v>16</v>
+      </c>
+      <c r="K16" s="29">
+        <v>2</v>
+      </c>
+      <c r="L16" s="29">
+        <v>32</v>
+      </c>
+      <c r="M16" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N16" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="30">
+        <v>1</v>
+      </c>
+      <c r="P16" s="45">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -7513,38 +10384,90 @@
       <c r="C17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="45"/>
+      <c r="D17" s="40">
+        <v>0.125</v>
+      </c>
+      <c r="E17" s="29">
+        <v>32</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G17" s="29">
+        <v>64</v>
+      </c>
+      <c r="H17" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="I17" s="29">
+        <v>16</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2</v>
+      </c>
+      <c r="K17" s="29">
+        <v>3</v>
+      </c>
+      <c r="L17" s="29">
+        <v>4</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="N17" s="19">
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="O17" s="29">
+        <v>4</v>
+      </c>
+      <c r="P17" s="45">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="15"/>
+      <c r="D18" s="40">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E18" s="32">
+        <v>16</v>
+      </c>
+      <c r="F18" s="29">
+        <v>4</v>
+      </c>
+      <c r="G18" s="29">
+        <v>512</v>
+      </c>
+      <c r="H18" s="29">
+        <v>2</v>
+      </c>
+      <c r="I18" s="29">
+        <v>32</v>
+      </c>
+      <c r="J18" s="32">
+        <v>64</v>
+      </c>
+      <c r="K18" s="29">
+        <v>3</v>
+      </c>
+      <c r="L18" s="29">
+        <v>2</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="N18" s="19">
+        <v>-0.125</v>
+      </c>
+      <c r="O18" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P18" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -7554,19 +10477,45 @@
       <c r="C19" s="22">
         <v>1</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="44"/>
+      <c r="D19" s="40">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>32</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="29">
+        <v>512</v>
+      </c>
+      <c r="H19" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="I19" s="13">
+        <v>32</v>
+      </c>
+      <c r="J19" s="31">
+        <v>32</v>
+      </c>
+      <c r="K19" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L19" s="29">
+        <v>16</v>
+      </c>
+      <c r="M19" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="N19" s="13">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O19" s="29">
+        <v>128</v>
+      </c>
+      <c r="P19" s="44">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -7574,19 +10523,45 @@
       <c r="C20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="51"/>
+      <c r="D20" s="42">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E20" s="35">
+        <v>4</v>
+      </c>
+      <c r="F20" s="49">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G20" s="47">
+        <v>1024</v>
+      </c>
+      <c r="H20" s="48">
+        <v>2</v>
+      </c>
+      <c r="I20" s="35">
+        <v>128</v>
+      </c>
+      <c r="J20" s="35">
+        <v>16</v>
+      </c>
+      <c r="K20" s="48">
+        <v>3</v>
+      </c>
+      <c r="L20" s="49">
+        <v>2</v>
+      </c>
+      <c r="M20" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="46">
+        <v>64</v>
+      </c>
+      <c r="P20" s="51">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>

--- a/results_analysis/spark_vertebralColum_02_hold_01.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D3560A-1A6A-4CA8-94FC-D550017E52D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE89D40-8829-4508-98E5-B3231BE5858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -147,8 +147,16 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -523,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,6 +726,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1002,25 +1019,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
@@ -1035,8 +1052,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1123,7 @@
         <v>0.69892473118279597</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1136,7 +1153,7 @@
         <v>0.75591397849462405</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -1169,7 +1186,7 @@
         <v>0.70752688172042999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -1200,7 +1217,7 @@
         <v>0.73548387096774204</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1235,7 +1252,7 @@
         <v>0.75053763440860199</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1265,7 +1282,7 @@
         <v>0.76881720430107503</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -1298,7 +1315,7 @@
         <v>0.69354838709677402</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -1307,7 +1324,7 @@
       <c r="D12" s="55">
         <v>0.76451612903225796</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="67">
         <v>0.79247311827957001</v>
       </c>
       <c r="F12" s="14">
@@ -1319,7 +1336,7 @@
       <c r="H12" s="14">
         <v>0.77634408602150595</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="67">
         <v>0.81720430107526898</v>
       </c>
       <c r="J12" s="14">
@@ -1329,7 +1346,7 @@
         <v>0.75376344086021496</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1381,7 @@
         <v>0.73655913978494603</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1394,7 +1411,7 @@
         <v>0.78602150537634397</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -1427,7 +1444,7 @@
         <v>0.72365591397849505</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -1458,7 +1475,7 @@
         <v>0.78064516129032302</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1510,7 @@
         <v>0.75591397849462405</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -1523,7 +1540,7 @@
         <v>0.71397849462365603</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -1556,7 +1573,7 @@
         <v>0.70752688172042999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -1587,7 +1604,7 @@
         <v>0.75913978494623702</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1597,7 +1614,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -1608,7 +1625,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -1618,7 +1635,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -1628,7 +1645,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -1638,7 +1655,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -1648,7 +1665,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -1658,7 +1675,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -1668,7 +1685,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -1678,7 +1695,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -1688,7 +1705,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -1698,7 +1715,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -1708,7 +1725,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -1718,7 +1735,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -1728,7 +1745,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -1738,7 +1755,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -1748,7 +1765,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1758,7 +1775,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -1768,7 +1785,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -1778,7 +1795,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -1788,7 +1805,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -1798,7 +1815,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -1808,7 +1825,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -1818,7 +1835,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -1828,7 +1845,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -1838,7 +1855,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -1848,7 +1865,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -1858,7 +1875,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -1868,7 +1885,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -1878,7 +1895,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -1888,7 +1905,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -1898,7 +1915,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -1908,7 +1925,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -1934,28 +1951,28 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>24</v>
       </c>
@@ -1977,8 +1994,8 @@
       <c r="Q1" s="60"/>
       <c r="R1" s="60"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="65" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2029,7 @@
       </c>
       <c r="S3" s="64"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2130,7 +2147,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -2184,7 +2201,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -2241,7 +2258,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2296,7 +2313,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2355,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -2409,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -2466,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -2521,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2580,7 +2597,7 @@
         <v>1024.0009765625</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -2634,7 +2651,7 @@
         <v>128.0009765625</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -2691,7 +2708,7 @@
         <v>1024.0009765625</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -2746,7 +2763,7 @@
         <v>1024.0009765625</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2805,7 +2822,7 @@
         <v>1024.0009765625</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -2859,7 +2876,7 @@
         <v>4.0009765625</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -2916,7 +2933,7 @@
         <v>512.0009765625</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -2971,10 +2988,10 @@
         <v>16.0009765625</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2991,7 +3008,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -3008,7 +3025,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -3025,7 +3042,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -3042,7 +3059,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -3059,7 +3076,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -3076,7 +3093,7 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -3093,7 +3110,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -3110,7 +3127,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -3127,7 +3144,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -3144,7 +3161,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -3161,7 +3178,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -3178,7 +3195,7 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
     </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -3195,7 +3212,7 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -3212,7 +3229,7 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -3229,7 +3246,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -3246,7 +3263,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -3287,14 +3304,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>23</v>
       </c>
@@ -3309,17 +3326,17 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3354,7 +3371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3373,7 +3390,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="53"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -3388,7 +3405,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -3405,7 +3422,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -3420,7 +3437,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -3439,7 +3456,7 @@
       <c r="J9" s="58"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -3454,7 +3471,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -3471,7 +3488,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -3486,7 +3503,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3505,7 +3522,7 @@
       <c r="J13" s="58"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -3520,7 +3537,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -3537,7 +3554,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -3552,7 +3569,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="56"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -3571,7 +3588,7 @@
       <c r="J17" s="58"/>
       <c r="K17" s="59"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -3586,7 +3603,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -3603,7 +3620,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -3634,14 +3651,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
@@ -3656,17 +3673,17 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3701,7 +3718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3720,7 +3737,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="53"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -3735,7 +3752,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -3752,7 +3769,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -3767,7 +3784,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -3786,7 +3803,7 @@
       <c r="J9" s="58"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -3801,7 +3818,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -3818,7 +3835,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -3833,7 +3850,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3852,7 +3869,7 @@
       <c r="J13" s="58"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -3867,7 +3884,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -3884,7 +3901,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -3899,7 +3916,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="56"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -3918,7 +3935,7 @@
       <c r="J17" s="58"/>
       <c r="K17" s="59"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -3933,7 +3950,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -3950,7 +3967,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -3981,21 +3998,21 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>32</v>
       </c>
@@ -4010,8 +4027,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4046,7 +4063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -4081,7 +4098,7 @@
         <v>5.4593355597590702E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -4111,7 +4128,7 @@
         <v>9.0255707166340099E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -4144,7 +4161,7 @@
         <v>5.1142821453009198E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -4175,7 +4192,7 @@
         <v>6.9906257256687601E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -4210,7 +4227,7 @@
         <v>4.88297816944126E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -4240,7 +4257,7 @@
         <v>7.4367361724897593E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -4273,7 +4290,7 @@
         <v>7.7248251119183903E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -4304,7 +4321,7 @@
         <v>4.3144951930621199E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -4339,7 +4356,7 @@
         <v>5.6044787710078398E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -4369,7 +4386,7 @@
         <v>4.3736411357079903E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -4402,7 +4419,7 @@
         <v>5.57690429242578E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -4433,7 +4450,7 @@
         <v>5.1742171849802399E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4468,7 +4485,7 @@
         <v>5.2689391154549799E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -4498,7 +4515,7 @@
         <v>6.5347097778226906E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -4531,7 +4548,7 @@
         <v>6.1831852768022499E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -4562,7 +4579,7 @@
         <v>6.4952724244153701E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -4572,7 +4589,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -4583,7 +4600,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -4593,7 +4610,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -4603,7 +4620,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -4613,7 +4630,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -4623,7 +4640,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -4633,7 +4650,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -4643,7 +4660,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -4653,7 +4670,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -4663,7 +4680,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -4673,7 +4690,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -4683,7 +4700,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -4693,7 +4710,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -4703,7 +4720,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -4713,7 +4730,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -4723,7 +4740,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -4733,7 +4750,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -4743,7 +4760,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -4753,7 +4770,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -4763,7 +4780,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -4773,7 +4790,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -4783,7 +4800,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -4793,7 +4810,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -4803,7 +4820,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -4813,7 +4830,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -4823,7 +4840,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -4833,7 +4850,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -4843,7 +4860,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -4853,7 +4870,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -4863,7 +4880,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -4873,7 +4890,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -4883,7 +4900,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -4909,21 +4926,21 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>30</v>
       </c>
@@ -4938,8 +4955,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4974,7 +4991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5009,7 +5026,7 @@
         <v>0.69892473118279597</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -5039,7 +5056,7 @@
         <v>0.76881720430107503</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -5072,7 +5089,7 @@
         <v>0.72043010752688197</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -5103,7 +5120,7 @@
         <v>0.74193548387096797</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -5138,7 +5155,7 @@
         <v>0.76344086021505397</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -5168,7 +5185,7 @@
         <v>0.74731182795698903</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -5201,7 +5218,7 @@
         <v>0.69892473118279597</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -5232,7 +5249,7 @@
         <v>0.75806451612903203</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -5267,7 +5284,7 @@
         <v>0.74193548387096797</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -5297,7 +5314,7 @@
         <v>0.78494623655913998</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -5330,7 +5347,7 @@
         <v>0.73118279569892497</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -5361,7 +5378,7 @@
         <v>0.79569892473118298</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -5396,7 +5413,7 @@
         <v>0.73655913978494603</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -5426,7 +5443,7 @@
         <v>0.70967741935483897</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -5459,7 +5476,7 @@
         <v>0.69892473118279597</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -5490,10 +5507,10 @@
         <v>0.77956989247311803</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5503,7 +5520,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -5513,7 +5530,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -5523,7 +5540,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -5533,7 +5550,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -5543,7 +5560,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -5553,7 +5570,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -5563,7 +5580,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -5573,7 +5590,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -5583,7 +5600,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -5593,7 +5610,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -5603,7 +5620,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -5613,7 +5630,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -5623,7 +5640,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -5633,7 +5650,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -5643,7 +5660,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -5653,7 +5670,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -5679,21 +5696,21 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>29</v>
       </c>
@@ -5708,8 +5725,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5744,7 +5761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5779,7 +5796,7 @@
         <v>0.79569892473118298</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -5809,7 +5826,7 @@
         <v>0.88172043010752699</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -5842,7 +5859,7 @@
         <v>0.77419354838709697</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -5873,7 +5890,7 @@
         <v>0.82795698924731198</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -5908,7 +5925,7 @@
         <v>0.80645161290322598</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -5938,7 +5955,7 @@
         <v>0.90322580645161299</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -5971,7 +5988,7 @@
         <v>0.84946236559139798</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -6002,7 +6019,7 @@
         <v>0.81720430107526898</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -6037,7 +6054,7 @@
         <v>0.80645161290322598</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -6067,7 +6084,7 @@
         <v>0.84946236559139798</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -6100,7 +6117,7 @@
         <v>0.79569892473118298</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -6131,7 +6148,7 @@
         <v>0.84946236559139798</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -6166,7 +6183,7 @@
         <v>0.86021505376344098</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -6196,7 +6213,7 @@
         <v>0.79569892473118298</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -6229,7 +6246,7 @@
         <v>0.81720430107526898</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -6260,7 +6277,7 @@
         <v>0.83870967741935498</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -6270,7 +6287,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -6281,7 +6298,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -6291,7 +6308,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -6301,7 +6318,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -6311,7 +6328,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -6321,7 +6338,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -6331,7 +6348,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -6341,7 +6358,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -6351,7 +6368,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -6361,7 +6378,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -6371,7 +6388,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -6381,7 +6398,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -6391,7 +6408,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -6401,7 +6418,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -6411,7 +6428,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -6421,7 +6438,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -6431,7 +6448,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -6441,7 +6458,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -6451,7 +6468,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -6461,7 +6478,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -6471,7 +6488,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -6481,7 +6498,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -6491,7 +6508,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -6501,7 +6518,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -6511,7 +6528,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -6521,7 +6538,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -6531,7 +6548,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6541,7 +6558,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -6551,7 +6568,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -6561,7 +6578,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -6571,7 +6588,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -6581,7 +6598,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -6603,25 +6620,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
@@ -6636,8 +6653,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6672,7 +6689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6707,7 +6724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -6737,7 +6754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -6770,7 +6787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -6801,7 +6818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6836,7 +6853,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -6866,7 +6883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -6899,7 +6916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -6908,7 +6925,7 @@
       <c r="D12" s="29">
         <v>7</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="68">
         <v>15</v>
       </c>
       <c r="F12" s="29">
@@ -6920,7 +6937,7 @@
       <c r="H12" s="29">
         <v>7</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="68">
         <v>173</v>
       </c>
       <c r="J12" s="29">
@@ -6930,7 +6947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -6965,7 +6982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -6995,7 +7012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -7028,7 +7045,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -7059,7 +7076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -7094,7 +7111,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -7124,7 +7141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -7157,7 +7174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -7188,10 +7205,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7201,7 +7218,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -7211,7 +7228,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -7221,7 +7238,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -7231,7 +7248,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -7241,7 +7258,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -7251,7 +7268,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -7261,7 +7278,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -7271,7 +7288,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -7281,7 +7298,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -7291,7 +7308,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -7301,7 +7318,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -7311,7 +7328,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -7321,7 +7338,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -7331,7 +7348,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -7341,7 +7358,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -7351,7 +7368,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -7374,24 +7391,24 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>27</v>
       </c>
@@ -7406,8 +7423,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -7442,7 +7459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7477,7 +7494,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -7507,7 +7524,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -7540,7 +7557,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -7571,7 +7588,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -7606,7 +7623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -7636,7 +7653,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -7669,7 +7686,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -7678,7 +7695,7 @@
       <c r="D12" s="19">
         <v>20.2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="66">
         <v>23.1</v>
       </c>
       <c r="F12" s="19">
@@ -7690,7 +7707,7 @@
       <c r="H12" s="19">
         <v>21.1</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="66">
         <v>173</v>
       </c>
       <c r="J12" s="19">
@@ -7700,7 +7717,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -7735,7 +7752,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -7765,7 +7782,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -7798,7 +7815,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -7829,7 +7846,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -7864,7 +7881,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -7894,7 +7911,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -7927,7 +7944,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -7958,10 +7975,10 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7971,7 +7988,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -7981,7 +7998,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -7991,7 +8008,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -8001,7 +8018,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8011,7 +8028,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8021,7 +8038,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -8031,7 +8048,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -8041,7 +8058,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -8051,7 +8068,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -8061,7 +8078,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -8071,7 +8088,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -8081,7 +8098,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -8091,7 +8108,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -8101,7 +8118,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -8111,7 +8128,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -8121,7 +8138,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -8144,24 +8161,24 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
@@ -8176,8 +8193,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -8212,7 +8229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -8247,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -8277,7 +8294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -8310,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -8341,7 +8358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -8376,7 +8393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -8406,7 +8423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -8439,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -8448,7 +8465,7 @@
       <c r="D12" s="29">
         <v>4</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="68">
         <v>4</v>
       </c>
       <c r="F12" s="29">
@@ -8460,7 +8477,7 @@
       <c r="H12" s="29">
         <v>7</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="68">
         <v>6</v>
       </c>
       <c r="J12" s="29">
@@ -8470,7 +8487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -8505,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -8535,7 +8552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -8568,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -8599,7 +8616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -8634,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -8664,7 +8681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -8697,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -8728,10 +8745,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -8741,7 +8758,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -8751,7 +8768,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -8761,7 +8778,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -8771,7 +8788,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8781,7 +8798,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8791,7 +8808,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -8801,7 +8818,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -8811,7 +8828,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -8821,7 +8838,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -8831,7 +8848,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -8841,7 +8858,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -8851,7 +8868,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -8861,7 +8878,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -8871,7 +8888,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -8881,7 +8898,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -8891,7 +8908,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -8917,21 +8934,21 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>24</v>
       </c>
@@ -8946,8 +8963,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -8982,7 +8999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -9017,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -9047,7 +9064,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -9080,7 +9097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -9111,7 +9128,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -9146,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -9176,7 +9193,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -9209,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -9240,7 +9257,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -9275,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -9305,7 +9322,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -9338,7 +9355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -9369,7 +9386,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -9404,7 +9421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -9434,7 +9451,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -9467,7 +9484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -9498,10 +9515,10 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -9511,7 +9528,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -9521,7 +9538,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -9531,7 +9548,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -9541,7 +9558,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -9551,7 +9568,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -9561,7 +9578,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -9571,7 +9588,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -9581,7 +9598,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -9591,7 +9608,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -9601,7 +9618,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -9611,7 +9628,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -9621,7 +9638,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -9631,7 +9648,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -9641,7 +9658,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -9651,7 +9668,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -9661,7 +9678,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -9687,25 +9704,25 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>25</v>
       </c>
@@ -9725,8 +9742,8 @@
       <c r="O1" s="60"/>
       <c r="P1" s="60"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
@@ -9757,7 +9774,7 @@
       </c>
       <c r="P3" s="64"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -9807,7 +9824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -9857,7 +9874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>12</v>
@@ -9902,7 +9919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -9950,7 +9967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="23" t="s">
@@ -9996,7 +10013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -10046,7 +10063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>12</v>
@@ -10091,7 +10108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -10139,7 +10156,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="23" t="s">
@@ -10185,7 +10202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -10235,7 +10252,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="22" t="s">
         <v>12</v>
@@ -10280,7 +10297,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -10328,7 +10345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="23" t="s">
@@ -10374,7 +10391,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -10424,7 +10441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="22" t="s">
         <v>12</v>
@@ -10469,7 +10486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -10517,7 +10534,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="23" t="s">
@@ -10563,10 +10580,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -10580,7 +10597,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -10594,7 +10611,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -10608,7 +10625,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -10622,7 +10639,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -10636,7 +10653,7 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -10650,7 +10667,7 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -10664,7 +10681,7 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -10678,7 +10695,7 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -10692,7 +10709,7 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -10706,7 +10723,7 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -10720,7 +10737,7 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -10734,7 +10751,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -10748,7 +10765,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -10762,7 +10779,7 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -10776,7 +10793,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -10790,7 +10807,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>

--- a/results_analysis/spark_vertebralColum_02_hold_01.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE89D40-8829-4508-98E5-B3231BE5858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65640EEE-6A65-4CB5-8FD3-CE1D755C4770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="33">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -531,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,6 +710,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,13 +737,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1019,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,19 +1062,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1324,7 +1348,7 @@
       <c r="D12" s="55">
         <v>0.76451612903225796</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="61">
         <v>0.79247311827957001</v>
       </c>
       <c r="F12" s="14">
@@ -1336,7 +1360,7 @@
       <c r="H12" s="14">
         <v>0.77634408602150595</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="61">
         <v>0.81720430107526898</v>
       </c>
       <c r="J12" s="14">
@@ -1604,7 +1628,7 @@
         <v>0.75913978494623702</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1614,96 +1638,164 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -1948,7 +2040,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1973,61 +2065,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="62" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="62" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="62" t="s">
+      <c r="I3" s="66"/>
+      <c r="J3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="62" t="s">
+      <c r="K3" s="66"/>
+      <c r="L3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="62" t="s">
+      <c r="M3" s="66"/>
+      <c r="N3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="62" t="s">
+      <c r="O3" s="66"/>
+      <c r="P3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="62" t="s">
+      <c r="Q3" s="66"/>
+      <c r="R3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="64"/>
+      <c r="S3" s="67"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3298,10 +3390,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065C56F-AEED-4D36-9CB5-AF6203A45422}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3312,19 +3404,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3634,6 +3726,168 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="56"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3645,10 +3899,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF1E589-1659-439B-B1DA-4F9E028A9755}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3659,19 +3913,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3981,6 +4235,168 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="56"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3995,7 +4411,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4013,19 +4429,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4579,7 +4995,7 @@
         <v>6.4952724244153701E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -4589,96 +5005,164 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -4923,7 +5407,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4941,19 +5425,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5507,8 +5991,165 @@
         <v>0.77956989247311803</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -5693,7 +6334,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5711,19 +6352,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6277,7 +6918,7 @@
         <v>0.83870967741935498</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -6287,96 +6928,164 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -6620,8 +7329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6639,19 +7348,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6925,7 +7634,7 @@
       <c r="D12" s="29">
         <v>7</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="62">
         <v>15</v>
       </c>
       <c r="F12" s="29">
@@ -6937,7 +7646,7 @@
       <c r="H12" s="29">
         <v>7</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="62">
         <v>173</v>
       </c>
       <c r="J12" s="29">
@@ -7205,8 +7914,165 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -7391,7 +8257,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7409,19 +8275,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7695,7 +8561,7 @@
       <c r="D12" s="19">
         <v>20.2</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="60">
         <v>23.1</v>
       </c>
       <c r="F12" s="19">
@@ -7707,7 +8573,7 @@
       <c r="H12" s="19">
         <v>21.1</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="60">
         <v>173</v>
       </c>
       <c r="J12" s="19">
@@ -7975,8 +8841,165 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -8161,7 +9184,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8179,19 +9202,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8465,7 +9488,7 @@
       <c r="D12" s="29">
         <v>4</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="62">
         <v>4</v>
       </c>
       <c r="F12" s="29">
@@ -8477,7 +9500,7 @@
       <c r="H12" s="29">
         <v>7</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="62">
         <v>6</v>
       </c>
       <c r="J12" s="29">
@@ -8745,8 +9768,165 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -8931,7 +10111,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8949,19 +10129,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9515,8 +10695,165 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -9701,7 +11038,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9723,24 +11060,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9750,29 +11087,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="62" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="62" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="64"/>
+      <c r="P3" s="67"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">

--- a/results_analysis/spark_vertebralColum_02_hold_01.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65640EEE-6A65-4CB5-8FD3-CE1D755C4770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FFDD43-D482-45A1-A639-5CF0CB3A6974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -719,24 +719,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,6 +741,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,19 +1062,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1679,28 +1679,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="63">
+        <v>0.71827956989247299</v>
+      </c>
+      <c r="E23" s="64">
+        <v>0.72365591397849505</v>
+      </c>
+      <c r="F23" s="64">
+        <v>0.76989247311828002</v>
+      </c>
+      <c r="G23" s="64">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="H23" s="64">
+        <v>0.74623655913978504</v>
+      </c>
+      <c r="I23" s="64">
+        <v>0.79784946236559195</v>
+      </c>
+      <c r="J23" s="64">
+        <v>0.76236559139784998</v>
+      </c>
+      <c r="K23" s="65">
+        <v>0.75591397849462405</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="66">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="E24" s="67">
+        <v>0.74623655913978504</v>
+      </c>
+      <c r="F24" s="67">
+        <v>0.74086021505376398</v>
+      </c>
+      <c r="G24" s="67">
+        <v>0.75591397849462405</v>
+      </c>
+      <c r="H24" s="67">
+        <v>0.73978494623655899</v>
+      </c>
+      <c r="I24" s="67">
+        <v>0.75053763440860199</v>
+      </c>
+      <c r="J24" s="67">
+        <v>0.738709677419355</v>
+      </c>
+      <c r="K24" s="68">
+        <v>0.73548387096774204</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1710,28 +1742,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="63">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="E25" s="64">
+        <v>0.76451612903225796</v>
+      </c>
+      <c r="F25" s="64">
+        <v>0.76236559139784998</v>
+      </c>
+      <c r="G25" s="64">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="H25" s="64">
+        <v>0.77526881720430096</v>
+      </c>
+      <c r="I25" s="64">
+        <v>0.79784946236559195</v>
+      </c>
+      <c r="J25" s="64">
+        <v>0.761290322580645</v>
+      </c>
+      <c r="K25" s="65">
+        <v>0.76881720430107503</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="66">
+        <v>0.76451612903225796</v>
+      </c>
+      <c r="E26" s="67">
+        <v>0.79247311827957001</v>
+      </c>
+      <c r="F26" s="67">
+        <v>0.77956989247311803</v>
+      </c>
+      <c r="G26" s="67">
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="H26" s="67">
+        <v>0.77634408602150595</v>
+      </c>
+      <c r="I26" s="67">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="J26" s="67">
+        <v>0.77634408602150595</v>
+      </c>
+      <c r="K26" s="68">
+        <v>0.75376344086021496</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -1741,14 +1805,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="63">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E27" s="64">
+        <v>0.75591397849462405</v>
+      </c>
+      <c r="F27" s="64">
+        <v>0.75483870967741895</v>
+      </c>
+      <c r="G27" s="64">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="H27" s="64">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="I27" s="64">
+        <v>0.761290322580645</v>
+      </c>
+      <c r="J27" s="64">
+        <v>0.76989247311828002</v>
+      </c>
+      <c r="K27" s="65">
+        <v>0.78602150537634397</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -1756,14 +1836,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="66">
+        <v>0.75591397849462405</v>
+      </c>
+      <c r="E28" s="67">
+        <v>0.74623655913978504</v>
+      </c>
+      <c r="F28" s="67">
+        <v>0.76559139784946295</v>
+      </c>
+      <c r="G28" s="67">
+        <v>0.76236559139784998</v>
+      </c>
+      <c r="H28" s="67">
+        <v>0.77526881720430096</v>
+      </c>
+      <c r="I28" s="67">
+        <v>0.77849462365591404</v>
+      </c>
+      <c r="J28" s="67">
+        <v>0.75483870967741895</v>
+      </c>
+      <c r="K28" s="68">
+        <v>0.78064516129032302</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -1773,14 +1869,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="D29" s="69">
+        <v>0.76774193548387104</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.76989247311828002</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.76559139784946295</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.73763440860215101</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.75483870967741995</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.71935483870967798</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.74408602150537595</v>
+      </c>
+      <c r="K29" s="70">
+        <v>0.75591397849462405</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -1788,14 +1900,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="D30" s="66">
+        <v>0.738709677419355</v>
+      </c>
+      <c r="E30" s="67">
+        <v>0.76451612903225796</v>
+      </c>
+      <c r="F30" s="67">
+        <v>0.75698924731182804</v>
+      </c>
+      <c r="G30" s="67">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="H30" s="67">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="I30" s="67">
+        <v>0.73333333333333395</v>
+      </c>
+      <c r="J30" s="67">
+        <v>0.73548387096774204</v>
+      </c>
+      <c r="K30" s="68">
+        <v>0.75913978494623702</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -2065,61 +2193,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="65" t="s">
+      <c r="I3" s="74"/>
+      <c r="J3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="65" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="65" t="s">
+      <c r="M3" s="74"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="65" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="65" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="67"/>
+      <c r="S3" s="75"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3404,19 +3532,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3769,14 +3897,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -3784,14 +3912,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -3801,14 +3929,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -3816,14 +3944,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -3833,14 +3961,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -3848,14 +3976,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -3865,14 +3993,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -3880,14 +4008,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3913,19 +4041,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4278,14 +4406,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -4293,14 +4421,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -4310,14 +4438,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -4325,14 +4453,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -4342,14 +4470,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -4357,14 +4485,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -4374,14 +4502,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -4389,14 +4517,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4411,7 +4539,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4429,19 +4557,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5046,28 +5174,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="63">
+        <v>7.1289232346677098E-2</v>
+      </c>
+      <c r="E23" s="64">
+        <v>7.7712507505501405E-2</v>
+      </c>
+      <c r="F23" s="64">
+        <v>5.6716961849039398E-2</v>
+      </c>
+      <c r="G23" s="64">
+        <v>6.8757441194447599E-2</v>
+      </c>
+      <c r="H23" s="64">
+        <v>6.7854678515837902E-2</v>
+      </c>
+      <c r="I23" s="64">
+        <v>4.88297816944126E-2</v>
+      </c>
+      <c r="J23" s="64">
+        <v>4.92619700316234E-2</v>
+      </c>
+      <c r="K23" s="65">
+        <v>9.0255707166340099E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="66">
+        <v>6.3512706618886597E-2</v>
+      </c>
+      <c r="E24" s="67">
+        <v>8.0177857558310806E-2</v>
+      </c>
+      <c r="F24" s="67">
+        <v>5.2297824994899003E-2</v>
+      </c>
+      <c r="G24" s="67">
+        <v>7.1872513527016402E-2</v>
+      </c>
+      <c r="H24" s="67">
+        <v>5.3835077721917098E-2</v>
+      </c>
+      <c r="I24" s="67">
+        <v>7.44623116769772E-2</v>
+      </c>
+      <c r="J24" s="67">
+        <v>5.3415841678169602E-2</v>
+      </c>
+      <c r="K24" s="68">
+        <v>6.9906257256687601E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -5077,28 +5237,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="63">
+        <v>6.9315697511877106E-2</v>
+      </c>
+      <c r="E25" s="64">
+        <v>5.0802579612622203E-2</v>
+      </c>
+      <c r="F25" s="64">
+        <v>5.1305836866743601E-2</v>
+      </c>
+      <c r="G25" s="64">
+        <v>4.2409174072398699E-2</v>
+      </c>
+      <c r="H25" s="64">
+        <v>2.70365909184891E-2</v>
+      </c>
+      <c r="I25" s="64">
+        <v>2.9030045492926999E-2</v>
+      </c>
+      <c r="J25" s="64">
+        <v>4.4709580299677899E-2</v>
+      </c>
+      <c r="K25" s="65">
+        <v>7.4367361724897593E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="66">
+        <v>5.9210341315503102E-2</v>
+      </c>
+      <c r="E26" s="67">
+        <v>4.0566763632748103E-2</v>
+      </c>
+      <c r="F26" s="67">
+        <v>3.7334528057347001E-2</v>
+      </c>
+      <c r="G26" s="67">
+        <v>4.0566763632748103E-2</v>
+      </c>
+      <c r="H26" s="67">
+        <v>4.93531597937161E-2</v>
+      </c>
+      <c r="I26" s="67">
+        <v>4.0232875126601501E-2</v>
+      </c>
+      <c r="J26" s="67">
+        <v>4.6401583749626503E-2</v>
+      </c>
+      <c r="K26" s="68">
+        <v>4.3144951930621199E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -5108,14 +5300,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="63">
+        <v>4.5408098420501503E-2</v>
+      </c>
+      <c r="E27" s="64">
+        <v>4.8100839166654599E-2</v>
+      </c>
+      <c r="F27" s="64">
+        <v>6.2862111163852999E-2</v>
+      </c>
+      <c r="G27" s="64">
+        <v>5.2920512760693199E-2</v>
+      </c>
+      <c r="H27" s="64">
+        <v>4.1567790339581398E-2</v>
+      </c>
+      <c r="I27" s="64">
+        <v>5.3835077721917098E-2</v>
+      </c>
+      <c r="J27" s="64">
+        <v>2.0401791355925E-2</v>
+      </c>
+      <c r="K27" s="65">
+        <v>4.3736411357079903E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -5123,14 +5331,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="66">
+        <v>4.6470746977384798E-2</v>
+      </c>
+      <c r="E28" s="67">
+        <v>5.2725951393357097E-2</v>
+      </c>
+      <c r="F28" s="67">
+        <v>6.0572416270330103E-2</v>
+      </c>
+      <c r="G28" s="67">
+        <v>4.0056870454332601E-2</v>
+      </c>
+      <c r="H28" s="67">
+        <v>3.6358292911586397E-2</v>
+      </c>
+      <c r="I28" s="67">
+        <v>6.0868615671265301E-2</v>
+      </c>
+      <c r="J28" s="67">
+        <v>7.5660357287218705E-2</v>
+      </c>
+      <c r="K28" s="68">
+        <v>5.1742171849802399E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -5140,14 +5364,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="D29" s="69">
+        <v>7.5728244566275305E-2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>3.9653954655023201E-2</v>
+      </c>
+      <c r="F29" s="16">
+        <v>5.8851256635910502E-2</v>
+      </c>
+      <c r="G29" s="16">
+        <v>6.3147571456760504E-2</v>
+      </c>
+      <c r="H29" s="16">
+        <v>5.3114361441842901E-2</v>
+      </c>
+      <c r="I29" s="16">
+        <v>6.07101171407919E-2</v>
+      </c>
+      <c r="J29" s="16">
+        <v>7.3594625191171895E-2</v>
+      </c>
+      <c r="K29" s="70">
+        <v>5.2689391154549799E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -5155,14 +5395,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="D30" s="66">
+        <v>6.06254151572478E-2</v>
+      </c>
+      <c r="E30" s="67">
+        <v>5.1555623332929998E-2</v>
+      </c>
+      <c r="F30" s="67">
+        <v>6.1498524987891698E-2</v>
+      </c>
+      <c r="G30" s="67">
+        <v>8.1858651891728695E-2</v>
+      </c>
+      <c r="H30" s="67">
+        <v>7.3419857371007105E-2</v>
+      </c>
+      <c r="I30" s="67">
+        <v>7.4806568305058399E-2</v>
+      </c>
+      <c r="J30" s="67">
+        <v>6.8794799220129502E-2</v>
+      </c>
+      <c r="K30" s="68">
+        <v>6.4952724244153701E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -5425,19 +5681,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6033,28 +6289,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -6064,28 +6320,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -6095,14 +6351,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -6110,14 +6366,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -6127,14 +6383,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -6142,14 +6398,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -6352,19 +6608,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6969,28 +7225,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -7000,28 +7256,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -7031,14 +7287,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -7046,14 +7302,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -7063,14 +7319,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -7078,14 +7334,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -7330,7 +7586,3170 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>7</v>
+      </c>
+      <c r="E5" s="29">
+        <v>12</v>
+      </c>
+      <c r="F5" s="29">
+        <v>7</v>
+      </c>
+      <c r="G5" s="29">
+        <v>32</v>
+      </c>
+      <c r="H5" s="29">
+        <v>23</v>
+      </c>
+      <c r="I5" s="29">
+        <v>173</v>
+      </c>
+      <c r="J5" s="29">
+        <v>4</v>
+      </c>
+      <c r="K5" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="29">
+        <v>10</v>
+      </c>
+      <c r="E6" s="29">
+        <v>23</v>
+      </c>
+      <c r="F6" s="29">
+        <v>18</v>
+      </c>
+      <c r="G6" s="29">
+        <v>30</v>
+      </c>
+      <c r="H6" s="29">
+        <v>30</v>
+      </c>
+      <c r="I6" s="29">
+        <v>155</v>
+      </c>
+      <c r="J6" s="29">
+        <v>6</v>
+      </c>
+      <c r="K6" s="29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>14</v>
+      </c>
+      <c r="E7" s="29">
+        <v>24</v>
+      </c>
+      <c r="F7" s="29">
+        <v>14</v>
+      </c>
+      <c r="G7" s="29">
+        <v>6</v>
+      </c>
+      <c r="H7" s="29">
+        <v>40</v>
+      </c>
+      <c r="I7" s="29">
+        <v>173</v>
+      </c>
+      <c r="J7" s="29">
+        <v>5</v>
+      </c>
+      <c r="K7" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="29">
+        <v>14</v>
+      </c>
+      <c r="E8" s="29">
+        <v>23</v>
+      </c>
+      <c r="F8" s="29">
+        <v>9</v>
+      </c>
+      <c r="G8" s="29">
+        <v>28</v>
+      </c>
+      <c r="H8" s="29">
+        <v>21</v>
+      </c>
+      <c r="I8" s="29">
+        <v>173</v>
+      </c>
+      <c r="J8" s="29">
+        <v>5</v>
+      </c>
+      <c r="K8" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>5</v>
+      </c>
+      <c r="E9" s="29">
+        <v>39</v>
+      </c>
+      <c r="F9" s="29">
+        <v>25</v>
+      </c>
+      <c r="G9" s="29">
+        <v>30</v>
+      </c>
+      <c r="H9" s="29">
+        <v>13</v>
+      </c>
+      <c r="I9" s="29">
+        <v>173</v>
+      </c>
+      <c r="J9" s="29">
+        <v>12</v>
+      </c>
+      <c r="K9" s="29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="29">
+        <v>37</v>
+      </c>
+      <c r="E10" s="29">
+        <v>18</v>
+      </c>
+      <c r="F10" s="29">
+        <v>41</v>
+      </c>
+      <c r="G10" s="29">
+        <v>24</v>
+      </c>
+      <c r="H10" s="29">
+        <v>22</v>
+      </c>
+      <c r="I10" s="29">
+        <v>173</v>
+      </c>
+      <c r="J10" s="29">
+        <v>4</v>
+      </c>
+      <c r="K10" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <v>6</v>
+      </c>
+      <c r="E11" s="29">
+        <v>39</v>
+      </c>
+      <c r="F11" s="29">
+        <v>19</v>
+      </c>
+      <c r="G11" s="29">
+        <v>31</v>
+      </c>
+      <c r="H11" s="29">
+        <v>12</v>
+      </c>
+      <c r="I11" s="29">
+        <v>173</v>
+      </c>
+      <c r="J11" s="29">
+        <v>17</v>
+      </c>
+      <c r="K11" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="29">
+        <v>7</v>
+      </c>
+      <c r="E12" s="62">
+        <v>15</v>
+      </c>
+      <c r="F12" s="29">
+        <v>28</v>
+      </c>
+      <c r="G12" s="29">
+        <v>33</v>
+      </c>
+      <c r="H12" s="29">
+        <v>7</v>
+      </c>
+      <c r="I12" s="62">
+        <v>173</v>
+      </c>
+      <c r="J12" s="29">
+        <v>7</v>
+      </c>
+      <c r="K12" s="29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29">
+        <v>19</v>
+      </c>
+      <c r="E13" s="29">
+        <v>13</v>
+      </c>
+      <c r="F13" s="29">
+        <v>7</v>
+      </c>
+      <c r="G13" s="29">
+        <v>45</v>
+      </c>
+      <c r="H13" s="29">
+        <v>13</v>
+      </c>
+      <c r="I13" s="29">
+        <v>18</v>
+      </c>
+      <c r="J13" s="29">
+        <v>32</v>
+      </c>
+      <c r="K13" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="29">
+        <v>17</v>
+      </c>
+      <c r="E14" s="29">
+        <v>14</v>
+      </c>
+      <c r="F14" s="29">
+        <v>20</v>
+      </c>
+      <c r="G14" s="29">
+        <v>32</v>
+      </c>
+      <c r="H14" s="29">
+        <v>15</v>
+      </c>
+      <c r="I14" s="29">
+        <v>18</v>
+      </c>
+      <c r="J14" s="29">
+        <v>23</v>
+      </c>
+      <c r="K14" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29">
+        <v>17</v>
+      </c>
+      <c r="E15" s="29">
+        <v>26</v>
+      </c>
+      <c r="F15" s="29">
+        <v>20</v>
+      </c>
+      <c r="G15" s="29">
+        <v>11</v>
+      </c>
+      <c r="H15" s="29">
+        <v>15</v>
+      </c>
+      <c r="I15" s="29">
+        <v>36</v>
+      </c>
+      <c r="J15" s="29">
+        <v>8</v>
+      </c>
+      <c r="K15" s="29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="29">
+        <v>9</v>
+      </c>
+      <c r="E16" s="29">
+        <v>21</v>
+      </c>
+      <c r="F16" s="29">
+        <v>32</v>
+      </c>
+      <c r="G16" s="29">
+        <v>14</v>
+      </c>
+      <c r="H16" s="29">
+        <v>13</v>
+      </c>
+      <c r="I16" s="29">
+        <v>12</v>
+      </c>
+      <c r="J16" s="29">
+        <v>9</v>
+      </c>
+      <c r="K16" s="29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="29">
+        <v>8</v>
+      </c>
+      <c r="E17" s="29">
+        <v>23</v>
+      </c>
+      <c r="F17" s="29">
+        <v>18</v>
+      </c>
+      <c r="G17" s="29">
+        <v>128</v>
+      </c>
+      <c r="H17" s="29">
+        <v>170</v>
+      </c>
+      <c r="I17" s="29">
+        <v>22</v>
+      </c>
+      <c r="J17" s="29">
+        <v>11</v>
+      </c>
+      <c r="K17" s="29">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="29">
+        <v>6</v>
+      </c>
+      <c r="E18" s="29">
+        <v>34</v>
+      </c>
+      <c r="F18" s="29">
+        <v>33</v>
+      </c>
+      <c r="G18" s="29">
+        <v>92</v>
+      </c>
+      <c r="H18" s="29">
+        <v>10</v>
+      </c>
+      <c r="I18" s="29">
+        <v>30</v>
+      </c>
+      <c r="J18" s="29">
+        <v>17</v>
+      </c>
+      <c r="K18" s="29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>11</v>
+      </c>
+      <c r="E19" s="29">
+        <v>10</v>
+      </c>
+      <c r="F19" s="29">
+        <v>21</v>
+      </c>
+      <c r="G19" s="29">
+        <v>3</v>
+      </c>
+      <c r="H19" s="29">
+        <v>13</v>
+      </c>
+      <c r="I19" s="29">
+        <v>7</v>
+      </c>
+      <c r="J19" s="29">
+        <v>5</v>
+      </c>
+      <c r="K19" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="29">
+        <v>6</v>
+      </c>
+      <c r="E20" s="29">
+        <v>30</v>
+      </c>
+      <c r="F20" s="29">
+        <v>21</v>
+      </c>
+      <c r="G20" s="29">
+        <v>8</v>
+      </c>
+      <c r="H20" s="29">
+        <v>22</v>
+      </c>
+      <c r="I20" s="29">
+        <v>57</v>
+      </c>
+      <c r="J20" s="29">
+        <v>20</v>
+      </c>
+      <c r="K20" s="29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="63">
+        <v>7</v>
+      </c>
+      <c r="E23" s="64">
+        <v>23</v>
+      </c>
+      <c r="F23" s="64">
+        <v>18</v>
+      </c>
+      <c r="G23" s="64">
+        <v>32</v>
+      </c>
+      <c r="H23" s="64">
+        <v>30</v>
+      </c>
+      <c r="I23" s="64">
+        <v>173</v>
+      </c>
+      <c r="J23" s="64">
+        <v>4</v>
+      </c>
+      <c r="K23" s="65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="66">
+        <v>14</v>
+      </c>
+      <c r="E24" s="67">
+        <v>23</v>
+      </c>
+      <c r="F24" s="67">
+        <v>9</v>
+      </c>
+      <c r="G24" s="67">
+        <v>28</v>
+      </c>
+      <c r="H24" s="67">
+        <v>21</v>
+      </c>
+      <c r="I24" s="67">
+        <v>173</v>
+      </c>
+      <c r="J24" s="67">
+        <v>5</v>
+      </c>
+      <c r="K24" s="68">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="63">
+        <v>37</v>
+      </c>
+      <c r="E25" s="64">
+        <v>18</v>
+      </c>
+      <c r="F25" s="64">
+        <v>41</v>
+      </c>
+      <c r="G25" s="64">
+        <v>24</v>
+      </c>
+      <c r="H25" s="64">
+        <v>13</v>
+      </c>
+      <c r="I25" s="64">
+        <v>173</v>
+      </c>
+      <c r="J25" s="64">
+        <v>4</v>
+      </c>
+      <c r="K25" s="65">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="66">
+        <v>7</v>
+      </c>
+      <c r="E26" s="67">
+        <v>15</v>
+      </c>
+      <c r="F26" s="67">
+        <v>28</v>
+      </c>
+      <c r="G26" s="67">
+        <v>33</v>
+      </c>
+      <c r="H26" s="67">
+        <v>7</v>
+      </c>
+      <c r="I26" s="67">
+        <v>173</v>
+      </c>
+      <c r="J26" s="67">
+        <v>7</v>
+      </c>
+      <c r="K26" s="68">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="63">
+        <v>17</v>
+      </c>
+      <c r="E27" s="64">
+        <v>14</v>
+      </c>
+      <c r="F27" s="64">
+        <v>20</v>
+      </c>
+      <c r="G27" s="64">
+        <v>32</v>
+      </c>
+      <c r="H27" s="64">
+        <v>15</v>
+      </c>
+      <c r="I27" s="64">
+        <v>18</v>
+      </c>
+      <c r="J27" s="64">
+        <v>32</v>
+      </c>
+      <c r="K27" s="65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="66">
+        <v>9</v>
+      </c>
+      <c r="E28" s="67">
+        <v>26</v>
+      </c>
+      <c r="F28" s="67">
+        <v>32</v>
+      </c>
+      <c r="G28" s="67">
+        <v>14</v>
+      </c>
+      <c r="H28" s="67">
+        <v>13</v>
+      </c>
+      <c r="I28" s="67">
+        <v>12</v>
+      </c>
+      <c r="J28" s="67">
+        <v>9</v>
+      </c>
+      <c r="K28" s="68">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="69">
+        <v>6</v>
+      </c>
+      <c r="E29" s="16">
+        <v>34</v>
+      </c>
+      <c r="F29" s="16">
+        <v>33</v>
+      </c>
+      <c r="G29" s="16">
+        <v>92</v>
+      </c>
+      <c r="H29" s="16">
+        <v>10</v>
+      </c>
+      <c r="I29" s="16">
+        <v>30</v>
+      </c>
+      <c r="J29" s="16">
+        <v>17</v>
+      </c>
+      <c r="K29" s="70">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="66">
+        <v>11</v>
+      </c>
+      <c r="E30" s="67">
+        <v>30</v>
+      </c>
+      <c r="F30" s="67">
+        <v>21</v>
+      </c>
+      <c r="G30" s="67">
+        <v>8</v>
+      </c>
+      <c r="H30" s="67">
+        <v>22</v>
+      </c>
+      <c r="I30" s="67">
+        <v>57</v>
+      </c>
+      <c r="J30" s="67">
+        <v>20</v>
+      </c>
+      <c r="K30" s="68">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="E5" s="19">
+        <v>14.5</v>
+      </c>
+      <c r="F5" s="19">
+        <v>17.7</v>
+      </c>
+      <c r="G5" s="19">
+        <v>19</v>
+      </c>
+      <c r="H5" s="19">
+        <v>18.3</v>
+      </c>
+      <c r="I5" s="19">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="J5" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K5" s="19">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="E6" s="19">
+        <v>19.5</v>
+      </c>
+      <c r="F6" s="19">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G6" s="19">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H6" s="19">
+        <v>20.9</v>
+      </c>
+      <c r="I6" s="19">
+        <v>148.6</v>
+      </c>
+      <c r="J6" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="K6" s="19">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E7" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="F7" s="19">
+        <v>13.1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>19</v>
+      </c>
+      <c r="H7" s="19">
+        <v>17.7</v>
+      </c>
+      <c r="I7" s="19">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="J7" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19">
+        <v>10.7</v>
+      </c>
+      <c r="E8" s="19">
+        <v>17.2</v>
+      </c>
+      <c r="F8" s="19">
+        <v>11</v>
+      </c>
+      <c r="G8" s="19">
+        <v>21</v>
+      </c>
+      <c r="H8" s="19">
+        <v>14.8</v>
+      </c>
+      <c r="I8" s="19">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="J8" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="K8" s="19">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <v>10.4</v>
+      </c>
+      <c r="E9" s="19">
+        <v>19.2</v>
+      </c>
+      <c r="F9" s="19">
+        <v>20</v>
+      </c>
+      <c r="G9" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="H9" s="19">
+        <v>15.2</v>
+      </c>
+      <c r="I9" s="19">
+        <v>173</v>
+      </c>
+      <c r="J9" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="K9" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="19">
+        <v>17</v>
+      </c>
+      <c r="E10" s="19">
+        <v>29.9</v>
+      </c>
+      <c r="F10" s="19">
+        <v>18.8</v>
+      </c>
+      <c r="G10" s="19">
+        <v>23.3</v>
+      </c>
+      <c r="H10" s="19">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I10" s="19">
+        <v>173</v>
+      </c>
+      <c r="J10" s="19">
+        <v>10.6</v>
+      </c>
+      <c r="K10" s="19">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>12</v>
+      </c>
+      <c r="E11" s="19">
+        <v>20.9</v>
+      </c>
+      <c r="F11" s="19">
+        <v>24.7</v>
+      </c>
+      <c r="G11" s="19">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H11" s="19">
+        <v>15.3</v>
+      </c>
+      <c r="I11" s="19">
+        <v>173</v>
+      </c>
+      <c r="J11" s="19">
+        <v>10.6</v>
+      </c>
+      <c r="K11" s="19">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="19">
+        <v>20.2</v>
+      </c>
+      <c r="E12" s="60">
+        <v>23.1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>22.4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>24.5</v>
+      </c>
+      <c r="H12" s="19">
+        <v>21.1</v>
+      </c>
+      <c r="I12" s="60">
+        <v>173</v>
+      </c>
+      <c r="J12" s="19">
+        <v>11.7</v>
+      </c>
+      <c r="K12" s="19">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E13" s="19">
+        <v>17.7</v>
+      </c>
+      <c r="F13" s="19">
+        <v>25.8</v>
+      </c>
+      <c r="G13" s="19">
+        <v>22.9</v>
+      </c>
+      <c r="H13" s="19">
+        <v>11.1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>11.8</v>
+      </c>
+      <c r="J13" s="19">
+        <v>10.8</v>
+      </c>
+      <c r="K13" s="19">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19">
+        <v>12.8</v>
+      </c>
+      <c r="E14" s="19">
+        <v>21.6</v>
+      </c>
+      <c r="F14" s="19">
+        <v>21.5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>28.6</v>
+      </c>
+      <c r="H14" s="19">
+        <v>30.9</v>
+      </c>
+      <c r="I14" s="19">
+        <v>23.1</v>
+      </c>
+      <c r="J14" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="K14" s="19">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
+        <v>14.3</v>
+      </c>
+      <c r="E15" s="19">
+        <v>14</v>
+      </c>
+      <c r="F15" s="19">
+        <v>18.8</v>
+      </c>
+      <c r="G15" s="19">
+        <v>17</v>
+      </c>
+      <c r="H15" s="19">
+        <v>15.9</v>
+      </c>
+      <c r="I15" s="19">
+        <v>21</v>
+      </c>
+      <c r="J15" s="19">
+        <v>17.3</v>
+      </c>
+      <c r="K15" s="19">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="19">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E16" s="19">
+        <v>15.2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>15.6</v>
+      </c>
+      <c r="G16" s="19">
+        <v>27.3</v>
+      </c>
+      <c r="H16" s="19">
+        <v>18.3</v>
+      </c>
+      <c r="I16" s="19">
+        <v>17.2</v>
+      </c>
+      <c r="J16" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="K16" s="19">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E17" s="19">
+        <v>20.9</v>
+      </c>
+      <c r="F17" s="19">
+        <v>22.2</v>
+      </c>
+      <c r="G17" s="19">
+        <v>57.2</v>
+      </c>
+      <c r="H17" s="19">
+        <v>45.3</v>
+      </c>
+      <c r="I17" s="19">
+        <v>25.1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>8</v>
+      </c>
+      <c r="K17" s="19">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="E18" s="19">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F18" s="19">
+        <v>25.9</v>
+      </c>
+      <c r="G18" s="19">
+        <v>43.6</v>
+      </c>
+      <c r="H18" s="19">
+        <v>28.5</v>
+      </c>
+      <c r="I18" s="19">
+        <v>23.4</v>
+      </c>
+      <c r="J18" s="19">
+        <v>14.4</v>
+      </c>
+      <c r="K18" s="19">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
+        <v>9.6</v>
+      </c>
+      <c r="E19" s="19">
+        <v>12</v>
+      </c>
+      <c r="F19" s="19">
+        <v>20.7</v>
+      </c>
+      <c r="G19" s="19">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H19" s="19">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I19" s="19">
+        <v>14.1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="K19" s="19">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="19">
+        <v>11.2</v>
+      </c>
+      <c r="E20" s="19">
+        <v>28.4</v>
+      </c>
+      <c r="F20" s="19">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G20" s="19">
+        <v>24.2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I20" s="19">
+        <v>23.2</v>
+      </c>
+      <c r="J20" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="K20" s="19">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="63">
+        <v>5.9</v>
+      </c>
+      <c r="E23" s="64">
+        <v>19.5</v>
+      </c>
+      <c r="F23" s="64">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G23" s="64">
+        <v>19</v>
+      </c>
+      <c r="H23" s="64">
+        <v>20.9</v>
+      </c>
+      <c r="I23" s="64">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="J23" s="64">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K23" s="65">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="66">
+        <v>10.7</v>
+      </c>
+      <c r="E24" s="67">
+        <v>17.2</v>
+      </c>
+      <c r="F24" s="67">
+        <v>11</v>
+      </c>
+      <c r="G24" s="67">
+        <v>21</v>
+      </c>
+      <c r="H24" s="67">
+        <v>14.8</v>
+      </c>
+      <c r="I24" s="67">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="J24" s="67">
+        <v>6.1</v>
+      </c>
+      <c r="K24" s="68">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="63">
+        <v>17</v>
+      </c>
+      <c r="E25" s="64">
+        <v>29.9</v>
+      </c>
+      <c r="F25" s="64">
+        <v>18.8</v>
+      </c>
+      <c r="G25" s="64">
+        <v>23.3</v>
+      </c>
+      <c r="H25" s="64">
+        <v>15.2</v>
+      </c>
+      <c r="I25" s="64">
+        <v>173</v>
+      </c>
+      <c r="J25" s="64">
+        <v>10.6</v>
+      </c>
+      <c r="K25" s="65">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="66">
+        <v>20.2</v>
+      </c>
+      <c r="E26" s="67">
+        <v>23.1</v>
+      </c>
+      <c r="F26" s="67">
+        <v>22.4</v>
+      </c>
+      <c r="G26" s="67">
+        <v>24.5</v>
+      </c>
+      <c r="H26" s="67">
+        <v>21.1</v>
+      </c>
+      <c r="I26" s="67">
+        <v>173</v>
+      </c>
+      <c r="J26" s="67">
+        <v>11.7</v>
+      </c>
+      <c r="K26" s="68">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="63">
+        <v>12.8</v>
+      </c>
+      <c r="E27" s="64">
+        <v>21.6</v>
+      </c>
+      <c r="F27" s="64">
+        <v>21.5</v>
+      </c>
+      <c r="G27" s="64">
+        <v>28.6</v>
+      </c>
+      <c r="H27" s="64">
+        <v>30.9</v>
+      </c>
+      <c r="I27" s="64">
+        <v>23.1</v>
+      </c>
+      <c r="J27" s="64">
+        <v>10.8</v>
+      </c>
+      <c r="K27" s="65">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="66">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E28" s="67">
+        <v>14</v>
+      </c>
+      <c r="F28" s="67">
+        <v>15.6</v>
+      </c>
+      <c r="G28" s="67">
+        <v>27.3</v>
+      </c>
+      <c r="H28" s="67">
+        <v>18.3</v>
+      </c>
+      <c r="I28" s="67">
+        <v>17.2</v>
+      </c>
+      <c r="J28" s="67">
+        <v>13.4</v>
+      </c>
+      <c r="K28" s="68">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="69">
+        <v>7.7</v>
+      </c>
+      <c r="E29" s="16">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F29" s="16">
+        <v>25.9</v>
+      </c>
+      <c r="G29" s="16">
+        <v>43.6</v>
+      </c>
+      <c r="H29" s="16">
+        <v>28.5</v>
+      </c>
+      <c r="I29" s="16">
+        <v>23.4</v>
+      </c>
+      <c r="J29" s="16">
+        <v>14.4</v>
+      </c>
+      <c r="K29" s="70">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="66">
+        <v>9.6</v>
+      </c>
+      <c r="E30" s="67">
+        <v>28.4</v>
+      </c>
+      <c r="F30" s="67">
+        <v>20.7</v>
+      </c>
+      <c r="G30" s="67">
+        <v>24.2</v>
+      </c>
+      <c r="H30" s="67">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I30" s="67">
+        <v>23.2</v>
+      </c>
+      <c r="J30" s="67">
+        <v>15.5</v>
+      </c>
+      <c r="K30" s="68">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29">
+        <v>1</v>
+      </c>
+      <c r="J5" s="29">
+        <v>1</v>
+      </c>
+      <c r="K5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="29">
+        <v>3</v>
+      </c>
+      <c r="E6" s="29">
+        <v>6</v>
+      </c>
+      <c r="F6" s="29">
+        <v>4</v>
+      </c>
+      <c r="G6" s="29">
+        <v>4</v>
+      </c>
+      <c r="H6" s="29">
+        <v>7</v>
+      </c>
+      <c r="I6" s="29">
+        <v>4</v>
+      </c>
+      <c r="J6" s="29">
+        <v>4</v>
+      </c>
+      <c r="K6" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="29">
+        <v>5</v>
+      </c>
+      <c r="E8" s="29">
+        <v>10</v>
+      </c>
+      <c r="F8" s="29">
+        <v>3</v>
+      </c>
+      <c r="G8" s="29">
+        <v>9</v>
+      </c>
+      <c r="H8" s="29">
+        <v>9</v>
+      </c>
+      <c r="I8" s="29">
+        <v>6</v>
+      </c>
+      <c r="J8" s="29">
+        <v>8</v>
+      </c>
+      <c r="K8" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="29">
+        <v>1</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="29">
+        <v>5</v>
+      </c>
+      <c r="E10" s="29">
+        <v>9</v>
+      </c>
+      <c r="F10" s="29">
+        <v>9</v>
+      </c>
+      <c r="G10" s="29">
+        <v>8</v>
+      </c>
+      <c r="H10" s="29">
+        <v>8</v>
+      </c>
+      <c r="I10" s="29">
+        <v>7</v>
+      </c>
+      <c r="J10" s="29">
+        <v>3</v>
+      </c>
+      <c r="K10" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="29">
+        <v>4</v>
+      </c>
+      <c r="E12" s="62">
+        <v>4</v>
+      </c>
+      <c r="F12" s="29">
+        <v>6</v>
+      </c>
+      <c r="G12" s="29">
+        <v>9</v>
+      </c>
+      <c r="H12" s="29">
+        <v>7</v>
+      </c>
+      <c r="I12" s="62">
+        <v>6</v>
+      </c>
+      <c r="J12" s="29">
+        <v>6</v>
+      </c>
+      <c r="K12" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1</v>
+      </c>
+      <c r="G13" s="29">
+        <v>1</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1</v>
+      </c>
+      <c r="J13" s="29">
+        <v>1</v>
+      </c>
+      <c r="K13" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="29">
+        <v>4</v>
+      </c>
+      <c r="E14" s="29">
+        <v>9</v>
+      </c>
+      <c r="F14" s="29">
+        <v>5</v>
+      </c>
+      <c r="G14" s="29">
+        <v>9</v>
+      </c>
+      <c r="H14" s="29">
+        <v>9</v>
+      </c>
+      <c r="I14" s="29">
+        <v>10</v>
+      </c>
+      <c r="J14" s="29">
+        <v>7</v>
+      </c>
+      <c r="K14" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>1</v>
+      </c>
+      <c r="G15" s="29">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29">
+        <v>1</v>
+      </c>
+      <c r="I15" s="29">
+        <v>1</v>
+      </c>
+      <c r="J15" s="29">
+        <v>1</v>
+      </c>
+      <c r="K15" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="29">
+        <v>3</v>
+      </c>
+      <c r="E16" s="29">
+        <v>9</v>
+      </c>
+      <c r="F16" s="29">
+        <v>8</v>
+      </c>
+      <c r="G16" s="29">
+        <v>9</v>
+      </c>
+      <c r="H16" s="29">
+        <v>9</v>
+      </c>
+      <c r="I16" s="29">
+        <v>6</v>
+      </c>
+      <c r="J16" s="29">
+        <v>8</v>
+      </c>
+      <c r="K16" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29">
+        <v>1</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1</v>
+      </c>
+      <c r="I17" s="29">
+        <v>1</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1</v>
+      </c>
+      <c r="K17" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="29">
+        <v>9</v>
+      </c>
+      <c r="E18" s="29">
+        <v>5</v>
+      </c>
+      <c r="F18" s="29">
+        <v>9</v>
+      </c>
+      <c r="G18" s="29">
+        <v>10</v>
+      </c>
+      <c r="H18" s="29">
+        <v>4</v>
+      </c>
+      <c r="I18" s="29">
+        <v>4</v>
+      </c>
+      <c r="J18" s="29">
+        <v>2</v>
+      </c>
+      <c r="K18" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="29">
+        <v>1</v>
+      </c>
+      <c r="H19" s="29">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29">
+        <v>1</v>
+      </c>
+      <c r="K19" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="29">
+        <v>3</v>
+      </c>
+      <c r="E20" s="29">
+        <v>9</v>
+      </c>
+      <c r="F20" s="29">
+        <v>6</v>
+      </c>
+      <c r="G20" s="29">
+        <v>2</v>
+      </c>
+      <c r="H20" s="29">
+        <v>6</v>
+      </c>
+      <c r="I20" s="29">
+        <v>5</v>
+      </c>
+      <c r="J20" s="29">
+        <v>9</v>
+      </c>
+      <c r="K20" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="63">
+        <v>1</v>
+      </c>
+      <c r="E23" s="64">
+        <v>6</v>
+      </c>
+      <c r="F23" s="64">
+        <v>4</v>
+      </c>
+      <c r="G23" s="64">
+        <v>1</v>
+      </c>
+      <c r="H23" s="64">
+        <v>7</v>
+      </c>
+      <c r="I23" s="64">
+        <v>1</v>
+      </c>
+      <c r="J23" s="64">
+        <v>1</v>
+      </c>
+      <c r="K23" s="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="66">
+        <v>5</v>
+      </c>
+      <c r="E24" s="67">
+        <v>10</v>
+      </c>
+      <c r="F24" s="67">
+        <v>3</v>
+      </c>
+      <c r="G24" s="67">
+        <v>9</v>
+      </c>
+      <c r="H24" s="67">
+        <v>9</v>
+      </c>
+      <c r="I24" s="67">
+        <v>6</v>
+      </c>
+      <c r="J24" s="67">
+        <v>1</v>
+      </c>
+      <c r="K24" s="68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="63">
+        <v>5</v>
+      </c>
+      <c r="E25" s="64">
+        <v>9</v>
+      </c>
+      <c r="F25" s="64">
+        <v>9</v>
+      </c>
+      <c r="G25" s="64">
+        <v>8</v>
+      </c>
+      <c r="H25" s="64">
+        <v>1</v>
+      </c>
+      <c r="I25" s="64">
+        <v>1</v>
+      </c>
+      <c r="J25" s="64">
+        <v>3</v>
+      </c>
+      <c r="K25" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="66">
+        <v>4</v>
+      </c>
+      <c r="E26" s="67">
+        <v>4</v>
+      </c>
+      <c r="F26" s="67">
+        <v>6</v>
+      </c>
+      <c r="G26" s="67">
+        <v>9</v>
+      </c>
+      <c r="H26" s="67">
+        <v>7</v>
+      </c>
+      <c r="I26" s="67">
+        <v>6</v>
+      </c>
+      <c r="J26" s="67">
+        <v>6</v>
+      </c>
+      <c r="K26" s="68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="63">
+        <v>4</v>
+      </c>
+      <c r="E27" s="64">
+        <v>9</v>
+      </c>
+      <c r="F27" s="64">
+        <v>5</v>
+      </c>
+      <c r="G27" s="64">
+        <v>9</v>
+      </c>
+      <c r="H27" s="64">
+        <v>9</v>
+      </c>
+      <c r="I27" s="64">
+        <v>10</v>
+      </c>
+      <c r="J27" s="64">
+        <v>1</v>
+      </c>
+      <c r="K27" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="66">
+        <v>3</v>
+      </c>
+      <c r="E28" s="67">
+        <v>1</v>
+      </c>
+      <c r="F28" s="67">
+        <v>8</v>
+      </c>
+      <c r="G28" s="67">
+        <v>9</v>
+      </c>
+      <c r="H28" s="67">
+        <v>9</v>
+      </c>
+      <c r="I28" s="67">
+        <v>6</v>
+      </c>
+      <c r="J28" s="67">
+        <v>8</v>
+      </c>
+      <c r="K28" s="68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="69">
+        <v>9</v>
+      </c>
+      <c r="E29" s="16">
+        <v>5</v>
+      </c>
+      <c r="F29" s="16">
+        <v>9</v>
+      </c>
+      <c r="G29" s="16">
+        <v>10</v>
+      </c>
+      <c r="H29" s="16">
+        <v>4</v>
+      </c>
+      <c r="I29" s="16">
+        <v>4</v>
+      </c>
+      <c r="J29" s="16">
+        <v>2</v>
+      </c>
+      <c r="K29" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="66">
+        <v>1</v>
+      </c>
+      <c r="E30" s="67">
+        <v>9</v>
+      </c>
+      <c r="F30" s="67">
+        <v>1</v>
+      </c>
+      <c r="G30" s="67">
+        <v>2</v>
+      </c>
+      <c r="H30" s="67">
+        <v>6</v>
+      </c>
+      <c r="I30" s="67">
+        <v>5</v>
+      </c>
+      <c r="J30" s="67">
+        <v>9</v>
+      </c>
+      <c r="K30" s="68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7348,19 +10767,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="A1" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7408,29 +10827,29 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="29">
-        <v>7</v>
-      </c>
-      <c r="E5" s="29">
-        <v>12</v>
-      </c>
-      <c r="F5" s="29">
-        <v>7</v>
-      </c>
-      <c r="G5" s="29">
-        <v>32</v>
-      </c>
-      <c r="H5" s="29">
-        <v>23</v>
-      </c>
-      <c r="I5" s="29">
-        <v>173</v>
-      </c>
-      <c r="J5" s="29">
-        <v>4</v>
-      </c>
-      <c r="K5" s="29">
-        <v>5</v>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7438,29 +10857,29 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29">
-        <v>10</v>
-      </c>
-      <c r="E6" s="29">
-        <v>23</v>
-      </c>
-      <c r="F6" s="29">
-        <v>18</v>
-      </c>
-      <c r="G6" s="29">
-        <v>30</v>
-      </c>
-      <c r="H6" s="29">
-        <v>30</v>
-      </c>
-      <c r="I6" s="29">
-        <v>155</v>
-      </c>
-      <c r="J6" s="29">
-        <v>6</v>
-      </c>
-      <c r="K6" s="29">
-        <v>60</v>
+      <c r="D6" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>4.7</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="G6" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="J6" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="K6" s="19">
+        <v>5.6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7471,29 +10890,29 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="29">
-        <v>14</v>
-      </c>
-      <c r="E7" s="29">
-        <v>24</v>
-      </c>
-      <c r="F7" s="29">
-        <v>14</v>
-      </c>
-      <c r="G7" s="29">
-        <v>6</v>
-      </c>
-      <c r="H7" s="29">
-        <v>40</v>
-      </c>
-      <c r="I7" s="29">
-        <v>173</v>
-      </c>
-      <c r="J7" s="29">
-        <v>5</v>
-      </c>
-      <c r="K7" s="29">
-        <v>14</v>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7502,29 +10921,29 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="29">
-        <v>14</v>
-      </c>
-      <c r="E8" s="29">
-        <v>23</v>
-      </c>
-      <c r="F8" s="29">
-        <v>9</v>
-      </c>
-      <c r="G8" s="29">
-        <v>28</v>
-      </c>
-      <c r="H8" s="29">
-        <v>21</v>
-      </c>
-      <c r="I8" s="29">
-        <v>173</v>
-      </c>
-      <c r="J8" s="29">
-        <v>5</v>
-      </c>
-      <c r="K8" s="29">
-        <v>24</v>
+      <c r="D8" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="F8" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="I8" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="J8" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="K8" s="19">
+        <v>7.3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7537,29 +10956,29 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="29">
-        <v>5</v>
-      </c>
-      <c r="E9" s="29">
-        <v>39</v>
-      </c>
-      <c r="F9" s="29">
-        <v>25</v>
-      </c>
-      <c r="G9" s="29">
-        <v>30</v>
-      </c>
-      <c r="H9" s="29">
-        <v>13</v>
-      </c>
-      <c r="I9" s="29">
-        <v>173</v>
-      </c>
-      <c r="J9" s="29">
-        <v>12</v>
-      </c>
-      <c r="K9" s="29">
-        <v>53</v>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -7567,29 +10986,29 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="29">
-        <v>37</v>
-      </c>
-      <c r="E10" s="29">
-        <v>18</v>
-      </c>
-      <c r="F10" s="29">
-        <v>41</v>
-      </c>
-      <c r="G10" s="29">
-        <v>24</v>
-      </c>
-      <c r="H10" s="29">
-        <v>22</v>
-      </c>
-      <c r="I10" s="29">
-        <v>173</v>
-      </c>
-      <c r="J10" s="29">
-        <v>4</v>
-      </c>
-      <c r="K10" s="29">
-        <v>38</v>
+      <c r="D10" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="E10" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="F10" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G10" s="19">
+        <v>7.8</v>
+      </c>
+      <c r="H10" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="I10" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="J10" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K10" s="19">
+        <v>5.4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -7600,29 +11019,29 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="29">
-        <v>6</v>
-      </c>
-      <c r="E11" s="29">
-        <v>39</v>
-      </c>
-      <c r="F11" s="29">
-        <v>19</v>
-      </c>
-      <c r="G11" s="29">
-        <v>31</v>
-      </c>
-      <c r="H11" s="29">
-        <v>12</v>
-      </c>
-      <c r="I11" s="29">
-        <v>173</v>
-      </c>
-      <c r="J11" s="29">
-        <v>17</v>
-      </c>
-      <c r="K11" s="29">
-        <v>6</v>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7631,29 +11050,29 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="29">
-        <v>7</v>
-      </c>
-      <c r="E12" s="62">
-        <v>15</v>
-      </c>
-      <c r="F12" s="29">
-        <v>28</v>
-      </c>
-      <c r="G12" s="29">
-        <v>33</v>
-      </c>
-      <c r="H12" s="29">
-        <v>7</v>
-      </c>
-      <c r="I12" s="62">
-        <v>173</v>
-      </c>
-      <c r="J12" s="29">
-        <v>7</v>
-      </c>
-      <c r="K12" s="29">
-        <v>52</v>
+      <c r="D12" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="E12" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="F12" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="G12" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="H12" s="19">
+        <v>6</v>
+      </c>
+      <c r="I12" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="J12" s="19">
+        <v>6.8</v>
+      </c>
+      <c r="K12" s="19">
+        <v>4.7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -7666,29 +11085,29 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="29">
-        <v>19</v>
-      </c>
-      <c r="E13" s="29">
-        <v>13</v>
-      </c>
-      <c r="F13" s="29">
-        <v>7</v>
-      </c>
-      <c r="G13" s="29">
-        <v>45</v>
-      </c>
-      <c r="H13" s="29">
-        <v>13</v>
-      </c>
-      <c r="I13" s="29">
-        <v>18</v>
-      </c>
-      <c r="J13" s="29">
-        <v>32</v>
-      </c>
-      <c r="K13" s="29">
-        <v>14</v>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -7696,29 +11115,29 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="29">
-        <v>17</v>
-      </c>
-      <c r="E14" s="29">
-        <v>14</v>
-      </c>
-      <c r="F14" s="29">
-        <v>20</v>
-      </c>
-      <c r="G14" s="29">
-        <v>32</v>
-      </c>
-      <c r="H14" s="29">
-        <v>15</v>
-      </c>
-      <c r="I14" s="29">
-        <v>18</v>
-      </c>
-      <c r="J14" s="29">
-        <v>23</v>
-      </c>
-      <c r="K14" s="29">
-        <v>12</v>
+      <c r="D14" s="19">
+        <v>8</v>
+      </c>
+      <c r="E14" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F14" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="H14" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="I14" s="19">
+        <v>8.9</v>
+      </c>
+      <c r="J14" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="K14" s="19">
+        <v>6.6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -7729,29 +11148,29 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29">
-        <v>17</v>
-      </c>
-      <c r="E15" s="29">
-        <v>26</v>
-      </c>
-      <c r="F15" s="29">
-        <v>20</v>
-      </c>
-      <c r="G15" s="29">
-        <v>11</v>
-      </c>
-      <c r="H15" s="29">
-        <v>15</v>
-      </c>
-      <c r="I15" s="29">
-        <v>36</v>
-      </c>
-      <c r="J15" s="29">
-        <v>8</v>
-      </c>
-      <c r="K15" s="29">
-        <v>43</v>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7760,29 +11179,29 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29">
-        <v>9</v>
-      </c>
-      <c r="E16" s="29">
-        <v>21</v>
-      </c>
-      <c r="F16" s="29">
-        <v>32</v>
-      </c>
-      <c r="G16" s="29">
-        <v>14</v>
-      </c>
-      <c r="H16" s="29">
-        <v>13</v>
-      </c>
-      <c r="I16" s="29">
-        <v>12</v>
-      </c>
-      <c r="J16" s="29">
-        <v>9</v>
-      </c>
-      <c r="K16" s="29">
-        <v>36</v>
+      <c r="D16" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="E16" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>6.8</v>
+      </c>
+      <c r="G16" s="19">
+        <v>7.1</v>
+      </c>
+      <c r="H16" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="I16" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="J16" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="K16" s="19">
+        <v>6.7</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -7795,29 +11214,29 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29">
-        <v>8</v>
-      </c>
-      <c r="E17" s="29">
-        <v>23</v>
-      </c>
-      <c r="F17" s="29">
-        <v>18</v>
-      </c>
-      <c r="G17" s="29">
-        <v>128</v>
-      </c>
-      <c r="H17" s="29">
-        <v>170</v>
-      </c>
-      <c r="I17" s="29">
-        <v>22</v>
-      </c>
-      <c r="J17" s="29">
-        <v>11</v>
-      </c>
-      <c r="K17" s="29">
-        <v>106</v>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -7825,29 +11244,29 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29">
-        <v>6</v>
-      </c>
-      <c r="E18" s="29">
-        <v>34</v>
-      </c>
-      <c r="F18" s="29">
-        <v>33</v>
-      </c>
-      <c r="G18" s="29">
-        <v>92</v>
-      </c>
-      <c r="H18" s="29">
-        <v>10</v>
-      </c>
-      <c r="I18" s="29">
-        <v>30</v>
-      </c>
-      <c r="J18" s="29">
-        <v>17</v>
-      </c>
-      <c r="K18" s="29">
-        <v>32</v>
+      <c r="D18" s="19">
+        <v>5</v>
+      </c>
+      <c r="E18" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="F18" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="G18" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H18" s="19">
+        <v>5</v>
+      </c>
+      <c r="I18" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J18" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K18" s="19">
+        <v>7.4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -7858,29 +11277,29 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="29">
-        <v>11</v>
-      </c>
-      <c r="E19" s="29">
-        <v>10</v>
-      </c>
-      <c r="F19" s="29">
-        <v>21</v>
-      </c>
-      <c r="G19" s="29">
-        <v>3</v>
-      </c>
-      <c r="H19" s="29">
-        <v>13</v>
-      </c>
-      <c r="I19" s="29">
-        <v>7</v>
-      </c>
-      <c r="J19" s="29">
-        <v>5</v>
-      </c>
-      <c r="K19" s="29">
-        <v>26</v>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7889,29 +11308,29 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="29">
-        <v>6</v>
-      </c>
-      <c r="E20" s="29">
-        <v>30</v>
-      </c>
-      <c r="F20" s="29">
-        <v>21</v>
-      </c>
-      <c r="G20" s="29">
-        <v>8</v>
-      </c>
-      <c r="H20" s="29">
-        <v>22</v>
-      </c>
-      <c r="I20" s="29">
-        <v>57</v>
-      </c>
-      <c r="J20" s="29">
-        <v>20</v>
-      </c>
-      <c r="K20" s="29">
-        <v>39</v>
+      <c r="D20" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="E20" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="F20" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H20" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="I20" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="J20" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="K20" s="19">
+        <v>4.8</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -7956,28 +11375,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="63">
+        <v>1</v>
+      </c>
+      <c r="E23" s="64">
+        <v>4.7</v>
+      </c>
+      <c r="F23" s="64">
+        <v>4.5</v>
+      </c>
+      <c r="G23" s="64">
+        <v>1</v>
+      </c>
+      <c r="H23" s="64">
+        <v>5.7</v>
+      </c>
+      <c r="I23" s="64">
+        <v>1</v>
+      </c>
+      <c r="J23" s="64">
+        <v>1</v>
+      </c>
+      <c r="K23" s="65">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="66">
+        <v>7.3</v>
+      </c>
+      <c r="E24" s="67">
+        <v>5.4</v>
+      </c>
+      <c r="F24" s="67">
+        <v>5.4</v>
+      </c>
+      <c r="G24" s="67">
+        <v>7.7</v>
+      </c>
+      <c r="H24" s="67">
+        <v>5.9</v>
+      </c>
+      <c r="I24" s="67">
+        <v>6.1</v>
+      </c>
+      <c r="J24" s="67">
+        <v>1</v>
+      </c>
+      <c r="K24" s="68">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -7987,28 +11438,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="D25" s="63">
+        <v>5.6</v>
+      </c>
+      <c r="E25" s="64">
+        <v>5.9</v>
+      </c>
+      <c r="F25" s="64">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G25" s="64">
+        <v>7.8</v>
+      </c>
+      <c r="H25" s="64">
+        <v>1</v>
+      </c>
+      <c r="I25" s="64">
+        <v>1</v>
+      </c>
+      <c r="J25" s="64">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K25" s="65">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
+      <c r="D26" s="66">
+        <v>6.3</v>
+      </c>
+      <c r="E26" s="67">
+        <v>6.4</v>
+      </c>
+      <c r="F26" s="67">
+        <v>4.3</v>
+      </c>
+      <c r="G26" s="67">
+        <v>6.7</v>
+      </c>
+      <c r="H26" s="67">
+        <v>6</v>
+      </c>
+      <c r="I26" s="67">
+        <v>7.7</v>
+      </c>
+      <c r="J26" s="67">
+        <v>6.8</v>
+      </c>
+      <c r="K26" s="68">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -8018,14 +11501,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="D27" s="63">
+        <v>8</v>
+      </c>
+      <c r="E27" s="64">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F27" s="64">
+        <v>5.5</v>
+      </c>
+      <c r="G27" s="64">
+        <v>7.2</v>
+      </c>
+      <c r="H27" s="64">
+        <v>7.5</v>
+      </c>
+      <c r="I27" s="64">
+        <v>8.9</v>
+      </c>
+      <c r="J27" s="64">
+        <v>1</v>
+      </c>
+      <c r="K27" s="65">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -8033,14 +11532,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="D28" s="66">
+        <v>5.9</v>
+      </c>
+      <c r="E28" s="67">
+        <v>1</v>
+      </c>
+      <c r="F28" s="67">
+        <v>6.8</v>
+      </c>
+      <c r="G28" s="67">
+        <v>7.1</v>
+      </c>
+      <c r="H28" s="67">
+        <v>6.2</v>
+      </c>
+      <c r="I28" s="67">
+        <v>5.6</v>
+      </c>
+      <c r="J28" s="67">
+        <v>5.4</v>
+      </c>
+      <c r="K28" s="68">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -8050,14 +11565,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
+      <c r="D29" s="69">
+        <v>5</v>
+      </c>
+      <c r="E29" s="16">
+        <v>5.8</v>
+      </c>
+      <c r="F29" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="G29" s="16">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H29" s="16">
+        <v>5</v>
+      </c>
+      <c r="I29" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J29" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K29" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -8065,2795 +11596,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="D30" s="66">
+        <v>1</v>
+      </c>
+      <c r="E30" s="67">
+        <v>5.2</v>
+      </c>
+      <c r="F30" s="67">
+        <v>1</v>
+      </c>
+      <c r="G30" s="67">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H30" s="67">
         <v>5.9</v>
       </c>
-      <c r="E5" s="19">
-        <v>14.5</v>
-      </c>
-      <c r="F5" s="19">
-        <v>17.7</v>
-      </c>
-      <c r="G5" s="19">
-        <v>19</v>
-      </c>
-      <c r="H5" s="19">
-        <v>18.3</v>
-      </c>
-      <c r="I5" s="19">
-        <v>157.19999999999999</v>
-      </c>
-      <c r="J5" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K5" s="19">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="E6" s="19">
-        <v>19.5</v>
-      </c>
-      <c r="F6" s="19">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="G6" s="19">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="H6" s="19">
-        <v>20.9</v>
-      </c>
-      <c r="I6" s="19">
-        <v>148.6</v>
-      </c>
-      <c r="J6" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="K6" s="19">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E7" s="19">
-        <v>13.4</v>
-      </c>
-      <c r="F7" s="19">
-        <v>13.1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>19</v>
-      </c>
-      <c r="H7" s="19">
-        <v>17.7</v>
-      </c>
-      <c r="I7" s="19">
-        <v>138.19999999999999</v>
-      </c>
-      <c r="J7" s="19">
-        <v>6.1</v>
-      </c>
-      <c r="K7" s="19">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="19">
-        <v>10.7</v>
-      </c>
-      <c r="E8" s="19">
-        <v>17.2</v>
-      </c>
-      <c r="F8" s="19">
-        <v>11</v>
-      </c>
-      <c r="G8" s="19">
-        <v>21</v>
-      </c>
-      <c r="H8" s="19">
-        <v>14.8</v>
-      </c>
-      <c r="I8" s="19">
-        <v>134.30000000000001</v>
-      </c>
-      <c r="J8" s="19">
-        <v>7.4</v>
-      </c>
-      <c r="K8" s="19">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>10.4</v>
-      </c>
-      <c r="E9" s="19">
-        <v>19.2</v>
-      </c>
-      <c r="F9" s="19">
-        <v>20</v>
-      </c>
-      <c r="G9" s="19">
-        <v>13.4</v>
-      </c>
-      <c r="H9" s="19">
-        <v>15.2</v>
-      </c>
-      <c r="I9" s="19">
-        <v>173</v>
-      </c>
-      <c r="J9" s="19">
-        <v>7.7</v>
-      </c>
-      <c r="K9" s="19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="19">
-        <v>17</v>
-      </c>
-      <c r="E10" s="19">
-        <v>29.9</v>
-      </c>
-      <c r="F10" s="19">
-        <v>18.8</v>
-      </c>
-      <c r="G10" s="19">
-        <v>23.3</v>
-      </c>
-      <c r="H10" s="19">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="I10" s="19">
-        <v>173</v>
-      </c>
-      <c r="J10" s="19">
-        <v>10.6</v>
-      </c>
-      <c r="K10" s="19">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>12</v>
-      </c>
-      <c r="E11" s="19">
-        <v>20.9</v>
-      </c>
-      <c r="F11" s="19">
-        <v>24.7</v>
-      </c>
-      <c r="G11" s="19">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="H11" s="19">
-        <v>15.3</v>
-      </c>
-      <c r="I11" s="19">
-        <v>173</v>
-      </c>
-      <c r="J11" s="19">
-        <v>10.6</v>
-      </c>
-      <c r="K11" s="19">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="19">
-        <v>20.2</v>
-      </c>
-      <c r="E12" s="60">
-        <v>23.1</v>
-      </c>
-      <c r="F12" s="19">
-        <v>22.4</v>
-      </c>
-      <c r="G12" s="19">
-        <v>24.5</v>
-      </c>
-      <c r="H12" s="19">
-        <v>21.1</v>
-      </c>
-      <c r="I12" s="60">
-        <v>173</v>
-      </c>
-      <c r="J12" s="19">
-        <v>11.7</v>
-      </c>
-      <c r="K12" s="19">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E13" s="19">
-        <v>17.7</v>
-      </c>
-      <c r="F13" s="19">
-        <v>25.8</v>
-      </c>
-      <c r="G13" s="19">
-        <v>22.9</v>
-      </c>
-      <c r="H13" s="19">
-        <v>11.1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>11.8</v>
-      </c>
-      <c r="J13" s="19">
-        <v>10.8</v>
-      </c>
-      <c r="K13" s="19">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="19">
-        <v>12.8</v>
-      </c>
-      <c r="E14" s="19">
-        <v>21.6</v>
-      </c>
-      <c r="F14" s="19">
-        <v>21.5</v>
-      </c>
-      <c r="G14" s="19">
-        <v>28.6</v>
-      </c>
-      <c r="H14" s="19">
-        <v>30.9</v>
-      </c>
-      <c r="I14" s="19">
-        <v>23.1</v>
-      </c>
-      <c r="J14" s="19">
-        <v>11.6</v>
-      </c>
-      <c r="K14" s="19">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>14.3</v>
-      </c>
-      <c r="E15" s="19">
-        <v>14</v>
-      </c>
-      <c r="F15" s="19">
-        <v>18.8</v>
-      </c>
-      <c r="G15" s="19">
-        <v>17</v>
-      </c>
-      <c r="H15" s="19">
-        <v>15.9</v>
-      </c>
-      <c r="I15" s="19">
-        <v>21</v>
-      </c>
-      <c r="J15" s="19">
-        <v>17.3</v>
-      </c>
-      <c r="K15" s="19">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="19">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E16" s="19">
-        <v>15.2</v>
-      </c>
-      <c r="F16" s="19">
-        <v>15.6</v>
-      </c>
-      <c r="G16" s="19">
-        <v>27.3</v>
-      </c>
-      <c r="H16" s="19">
-        <v>18.3</v>
-      </c>
-      <c r="I16" s="19">
-        <v>17.2</v>
-      </c>
-      <c r="J16" s="19">
-        <v>13.4</v>
-      </c>
-      <c r="K16" s="19">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="19">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E17" s="19">
-        <v>20.9</v>
-      </c>
-      <c r="F17" s="19">
-        <v>22.2</v>
-      </c>
-      <c r="G17" s="19">
-        <v>57.2</v>
-      </c>
-      <c r="H17" s="19">
-        <v>45.3</v>
-      </c>
-      <c r="I17" s="19">
-        <v>25.1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>8</v>
-      </c>
-      <c r="K17" s="19">
-        <v>34.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="19">
-        <v>7.7</v>
-      </c>
-      <c r="E18" s="19">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="F18" s="19">
-        <v>25.9</v>
-      </c>
-      <c r="G18" s="19">
-        <v>43.6</v>
-      </c>
-      <c r="H18" s="19">
-        <v>28.5</v>
-      </c>
-      <c r="I18" s="19">
-        <v>23.4</v>
-      </c>
-      <c r="J18" s="19">
-        <v>14.4</v>
-      </c>
-      <c r="K18" s="19">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19">
-        <v>9.6</v>
-      </c>
-      <c r="E19" s="19">
-        <v>12</v>
-      </c>
-      <c r="F19" s="19">
-        <v>20.7</v>
-      </c>
-      <c r="G19" s="19">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="H19" s="19">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="I19" s="19">
-        <v>14.1</v>
-      </c>
-      <c r="J19" s="19">
-        <v>8.5</v>
-      </c>
-      <c r="K19" s="19">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="19">
-        <v>11.2</v>
-      </c>
-      <c r="E20" s="19">
-        <v>28.4</v>
-      </c>
-      <c r="F20" s="19">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G20" s="19">
-        <v>24.2</v>
-      </c>
-      <c r="H20" s="19">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="I20" s="19">
-        <v>23.2</v>
-      </c>
-      <c r="J20" s="19">
-        <v>15.5</v>
-      </c>
-      <c r="K20" s="19">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29">
-        <v>1</v>
-      </c>
-      <c r="G5" s="29">
-        <v>1</v>
-      </c>
-      <c r="H5" s="29">
-        <v>1</v>
-      </c>
-      <c r="I5" s="29">
-        <v>1</v>
-      </c>
-      <c r="J5" s="29">
-        <v>1</v>
-      </c>
-      <c r="K5" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="29">
-        <v>3</v>
-      </c>
-      <c r="E6" s="29">
-        <v>6</v>
-      </c>
-      <c r="F6" s="29">
-        <v>4</v>
-      </c>
-      <c r="G6" s="29">
-        <v>4</v>
-      </c>
-      <c r="H6" s="29">
-        <v>7</v>
-      </c>
-      <c r="I6" s="29">
-        <v>4</v>
-      </c>
-      <c r="J6" s="29">
-        <v>4</v>
-      </c>
-      <c r="K6" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29">
-        <v>1</v>
-      </c>
-      <c r="E7" s="29">
-        <v>1</v>
-      </c>
-      <c r="F7" s="29">
-        <v>1</v>
-      </c>
-      <c r="G7" s="29">
-        <v>1</v>
-      </c>
-      <c r="H7" s="29">
-        <v>1</v>
-      </c>
-      <c r="I7" s="29">
-        <v>1</v>
-      </c>
-      <c r="J7" s="29">
-        <v>1</v>
-      </c>
-      <c r="K7" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="29">
-        <v>5</v>
-      </c>
-      <c r="E8" s="29">
-        <v>10</v>
-      </c>
-      <c r="F8" s="29">
-        <v>3</v>
-      </c>
-      <c r="G8" s="29">
-        <v>9</v>
-      </c>
-      <c r="H8" s="29">
-        <v>9</v>
-      </c>
-      <c r="I8" s="29">
-        <v>6</v>
-      </c>
-      <c r="J8" s="29">
-        <v>8</v>
-      </c>
-      <c r="K8" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29">
-        <v>1</v>
-      </c>
-      <c r="E9" s="29">
-        <v>1</v>
-      </c>
-      <c r="F9" s="29">
-        <v>1</v>
-      </c>
-      <c r="G9" s="29">
-        <v>1</v>
-      </c>
-      <c r="H9" s="29">
-        <v>1</v>
-      </c>
-      <c r="I9" s="29">
-        <v>1</v>
-      </c>
-      <c r="J9" s="29">
-        <v>1</v>
-      </c>
-      <c r="K9" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="29">
-        <v>5</v>
-      </c>
-      <c r="E10" s="29">
-        <v>9</v>
-      </c>
-      <c r="F10" s="29">
-        <v>9</v>
-      </c>
-      <c r="G10" s="29">
-        <v>8</v>
-      </c>
-      <c r="H10" s="29">
-        <v>8</v>
-      </c>
-      <c r="I10" s="29">
-        <v>7</v>
-      </c>
-      <c r="J10" s="29">
-        <v>3</v>
-      </c>
-      <c r="K10" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="29">
-        <v>1</v>
-      </c>
-      <c r="E11" s="29">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
-        <v>1</v>
-      </c>
-      <c r="G11" s="29">
-        <v>1</v>
-      </c>
-      <c r="H11" s="29">
-        <v>1</v>
-      </c>
-      <c r="I11" s="29">
-        <v>1</v>
-      </c>
-      <c r="J11" s="29">
-        <v>1</v>
-      </c>
-      <c r="K11" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="29">
-        <v>4</v>
-      </c>
-      <c r="E12" s="62">
-        <v>4</v>
-      </c>
-      <c r="F12" s="29">
-        <v>6</v>
-      </c>
-      <c r="G12" s="29">
-        <v>9</v>
-      </c>
-      <c r="H12" s="29">
-        <v>7</v>
-      </c>
-      <c r="I12" s="62">
-        <v>6</v>
-      </c>
-      <c r="J12" s="29">
-        <v>6</v>
-      </c>
-      <c r="K12" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="29">
-        <v>1</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29">
-        <v>1</v>
-      </c>
-      <c r="G13" s="29">
-        <v>1</v>
-      </c>
-      <c r="H13" s="29">
-        <v>1</v>
-      </c>
-      <c r="I13" s="29">
-        <v>1</v>
-      </c>
-      <c r="J13" s="29">
-        <v>1</v>
-      </c>
-      <c r="K13" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="29">
-        <v>4</v>
-      </c>
-      <c r="E14" s="29">
-        <v>9</v>
-      </c>
-      <c r="F14" s="29">
-        <v>5</v>
-      </c>
-      <c r="G14" s="29">
-        <v>9</v>
-      </c>
-      <c r="H14" s="29">
-        <v>9</v>
-      </c>
-      <c r="I14" s="29">
-        <v>10</v>
-      </c>
-      <c r="J14" s="29">
-        <v>7</v>
-      </c>
-      <c r="K14" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="29">
-        <v>1</v>
-      </c>
-      <c r="E15" s="29">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29">
-        <v>1</v>
-      </c>
-      <c r="G15" s="29">
-        <v>1</v>
-      </c>
-      <c r="H15" s="29">
-        <v>1</v>
-      </c>
-      <c r="I15" s="29">
-        <v>1</v>
-      </c>
-      <c r="J15" s="29">
-        <v>1</v>
-      </c>
-      <c r="K15" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="29">
-        <v>3</v>
-      </c>
-      <c r="E16" s="29">
-        <v>9</v>
-      </c>
-      <c r="F16" s="29">
-        <v>8</v>
-      </c>
-      <c r="G16" s="29">
-        <v>9</v>
-      </c>
-      <c r="H16" s="29">
-        <v>9</v>
-      </c>
-      <c r="I16" s="29">
-        <v>6</v>
-      </c>
-      <c r="J16" s="29">
-        <v>8</v>
-      </c>
-      <c r="K16" s="29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="29">
-        <v>1</v>
-      </c>
-      <c r="E17" s="29">
-        <v>1</v>
-      </c>
-      <c r="F17" s="29">
-        <v>1</v>
-      </c>
-      <c r="G17" s="29">
-        <v>1</v>
-      </c>
-      <c r="H17" s="29">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29">
-        <v>1</v>
-      </c>
-      <c r="J17" s="29">
-        <v>1</v>
-      </c>
-      <c r="K17" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="29">
-        <v>9</v>
-      </c>
-      <c r="E18" s="29">
-        <v>5</v>
-      </c>
-      <c r="F18" s="29">
-        <v>9</v>
-      </c>
-      <c r="G18" s="29">
-        <v>10</v>
-      </c>
-      <c r="H18" s="29">
-        <v>4</v>
-      </c>
-      <c r="I18" s="29">
-        <v>4</v>
-      </c>
-      <c r="J18" s="29">
-        <v>2</v>
-      </c>
-      <c r="K18" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="29">
-        <v>1</v>
-      </c>
-      <c r="E19" s="29">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29">
-        <v>1</v>
-      </c>
-      <c r="G19" s="29">
-        <v>1</v>
-      </c>
-      <c r="H19" s="29">
-        <v>1</v>
-      </c>
-      <c r="I19" s="29">
-        <v>1</v>
-      </c>
-      <c r="J19" s="29">
-        <v>1</v>
-      </c>
-      <c r="K19" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="29">
-        <v>3</v>
-      </c>
-      <c r="E20" s="29">
-        <v>9</v>
-      </c>
-      <c r="F20" s="29">
-        <v>6</v>
-      </c>
-      <c r="G20" s="29">
-        <v>2</v>
-      </c>
-      <c r="H20" s="29">
-        <v>6</v>
-      </c>
-      <c r="I20" s="29">
-        <v>5</v>
-      </c>
-      <c r="J20" s="29">
-        <v>9</v>
-      </c>
-      <c r="K20" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19">
-        <v>5.3</v>
-      </c>
-      <c r="E6" s="19">
-        <v>4.7</v>
-      </c>
-      <c r="F6" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="G6" s="19">
-        <v>6.5</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="I30" s="67">
         <v>5.7</v>
       </c>
-      <c r="I6" s="19">
-        <v>5.3</v>
-      </c>
-      <c r="J6" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="K6" s="19">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="19">
-        <v>7.3</v>
-      </c>
-      <c r="E8" s="19">
-        <v>5.4</v>
-      </c>
-      <c r="F8" s="19">
-        <v>5.4</v>
-      </c>
-      <c r="G8" s="19">
-        <v>7.7</v>
-      </c>
-      <c r="H8" s="19">
-        <v>5.9</v>
-      </c>
-      <c r="I8" s="19">
-        <v>6.1</v>
-      </c>
-      <c r="J8" s="19">
-        <v>5.4</v>
-      </c>
-      <c r="K8" s="19">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="19">
-        <v>5.6</v>
-      </c>
-      <c r="E10" s="19">
-        <v>5.9</v>
-      </c>
-      <c r="F10" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G10" s="19">
-        <v>7.8</v>
-      </c>
-      <c r="H10" s="19">
-        <v>5.4</v>
-      </c>
-      <c r="I10" s="19">
+      <c r="J30" s="67">
         <v>5.8</v>
       </c>
-      <c r="J10" s="19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K10" s="19">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="19">
-        <v>6.3</v>
-      </c>
-      <c r="E12" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="F12" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="G12" s="19">
-        <v>6.7</v>
-      </c>
-      <c r="H12" s="19">
-        <v>6</v>
-      </c>
-      <c r="I12" s="19">
-        <v>7.7</v>
-      </c>
-      <c r="J12" s="19">
-        <v>6.8</v>
-      </c>
-      <c r="K12" s="19">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="19">
-        <v>8</v>
-      </c>
-      <c r="E14" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F14" s="19">
-        <v>5.5</v>
-      </c>
-      <c r="G14" s="19">
-        <v>7.2</v>
-      </c>
-      <c r="H14" s="19">
-        <v>7.5</v>
-      </c>
-      <c r="I14" s="19">
-        <v>8.9</v>
-      </c>
-      <c r="J14" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="K14" s="19">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-      <c r="K15" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="19">
-        <v>5.9</v>
-      </c>
-      <c r="E16" s="19">
-        <v>6.2</v>
-      </c>
-      <c r="F16" s="19">
-        <v>6.8</v>
-      </c>
-      <c r="G16" s="19">
-        <v>7.1</v>
-      </c>
-      <c r="H16" s="19">
-        <v>6.2</v>
-      </c>
-      <c r="I16" s="19">
-        <v>5.6</v>
-      </c>
-      <c r="J16" s="19">
-        <v>5.4</v>
-      </c>
-      <c r="K16" s="19">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="19">
-        <v>5</v>
-      </c>
-      <c r="E18" s="19">
-        <v>5.8</v>
-      </c>
-      <c r="F18" s="19">
-        <v>5.7</v>
-      </c>
-      <c r="G18" s="19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H18" s="19">
-        <v>5</v>
-      </c>
-      <c r="I18" s="19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J18" s="19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K18" s="19">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="19">
-        <v>6.7</v>
-      </c>
-      <c r="E20" s="19">
-        <v>5.2</v>
-      </c>
-      <c r="F20" s="19">
-        <v>5.2</v>
-      </c>
-      <c r="G20" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H20" s="19">
-        <v>5.9</v>
-      </c>
-      <c r="I20" s="19">
-        <v>5.7</v>
-      </c>
-      <c r="J20" s="19">
-        <v>5.8</v>
-      </c>
-      <c r="K20" s="19">
+      <c r="K30" s="68">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="76"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -11060,24 +11826,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11087,29 +11853,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="65" t="s">
+      <c r="L3" s="74"/>
+      <c r="M3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="65" t="s">
+      <c r="N3" s="74"/>
+      <c r="O3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="67"/>
+      <c r="P3" s="75"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">

--- a/results_analysis/spark_vertebralColum_02_hold_01.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FFDD43-D482-45A1-A639-5CF0CB3A6974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0B56A0-16B9-46B0-A2E2-2292610A2B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4538,8 +4538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C92042-0542-4E55-9D7F-B323C5541110}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:K30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8639,8 +8639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:K30"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results_analysis/spark_vertebralColum_02_hold_01.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0B56A0-16B9-46B0-A2E2-2292610A2B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC38E583-423F-4ACE-9B83-AD39CA1430E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,6 +759,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1043,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:K30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,7 +1703,7 @@
       <c r="E23" s="64">
         <v>0.72365591397849505</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="77">
         <v>0.76989247311828002</v>
       </c>
       <c r="G23" s="64">
@@ -1694,10 +1712,10 @@
       <c r="H23" s="64">
         <v>0.74623655913978504</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="77">
         <v>0.79784946236559195</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="77">
         <v>0.76236559139784998</v>
       </c>
       <c r="K23" s="65">
@@ -1712,19 +1730,19 @@
       <c r="D24" s="66">
         <v>0.73118279569892497</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="78">
         <v>0.74623655913978504</v>
       </c>
       <c r="F24" s="67">
         <v>0.74086021505376398</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="78">
         <v>0.75591397849462405</v>
       </c>
       <c r="H24" s="67">
         <v>0.73978494623655899</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="78">
         <v>0.75053763440860199</v>
       </c>
       <c r="J24" s="67">
@@ -1751,13 +1769,13 @@
       <c r="F25" s="64">
         <v>0.76236559139784998</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="77">
         <v>0.79569892473118298</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="77">
         <v>0.77526881720430096</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="77">
         <v>0.79784946236559195</v>
       </c>
       <c r="J25" s="64">
@@ -1775,10 +1793,10 @@
       <c r="D26" s="66">
         <v>0.76451612903225796</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="78">
         <v>0.79247311827957001</v>
       </c>
-      <c r="F26" s="67">
+      <c r="F26" s="78">
         <v>0.77956989247311803</v>
       </c>
       <c r="G26" s="67">
@@ -1787,7 +1805,7 @@
       <c r="H26" s="67">
         <v>0.77634408602150595</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="78">
         <v>0.81720430107526898</v>
       </c>
       <c r="J26" s="67">
@@ -1814,7 +1832,7 @@
       <c r="F27" s="64">
         <v>0.75483870967741895</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="77">
         <v>0.77419354838709697</v>
       </c>
       <c r="H27" s="64">
@@ -1823,10 +1841,10 @@
       <c r="I27" s="64">
         <v>0.761290322580645</v>
       </c>
-      <c r="J27" s="64">
+      <c r="J27" s="77">
         <v>0.76989247311828002</v>
       </c>
-      <c r="K27" s="65">
+      <c r="K27" s="79">
         <v>0.78602150537634397</v>
       </c>
     </row>
@@ -1848,16 +1866,16 @@
       <c r="G28" s="67">
         <v>0.76236559139784998</v>
       </c>
-      <c r="H28" s="67">
+      <c r="H28" s="78">
         <v>0.77526881720430096</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="78">
         <v>0.77849462365591404</v>
       </c>
       <c r="J28" s="67">
         <v>0.75483870967741895</v>
       </c>
-      <c r="K28" s="68">
+      <c r="K28" s="80">
         <v>0.78064516129032302</v>
       </c>
     </row>
@@ -1869,13 +1887,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="69">
+      <c r="D29" s="82">
         <v>0.76774193548387104</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="81">
         <v>0.76989247311828002</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="81">
         <v>0.76559139784946295</v>
       </c>
       <c r="G29" s="16">
@@ -1903,10 +1921,10 @@
       <c r="D30" s="66">
         <v>0.738709677419355</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="78">
         <v>0.76451612903225796</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F30" s="78">
         <v>0.75698924731182804</v>
       </c>
       <c r="G30" s="67">
@@ -1921,7 +1939,7 @@
       <c r="J30" s="67">
         <v>0.73548387096774204</v>
       </c>
-      <c r="K30" s="68">
+      <c r="K30" s="80">
         <v>0.75913978494623702</v>
       </c>
     </row>
@@ -4538,7 +4556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C92042-0542-4E55-9D7F-B323C5541110}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>

--- a/results_analysis/spark_vertebralColum_02_hold_01.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC38E583-423F-4ACE-9B83-AD39CA1430E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B10B71-85A0-446A-9229-6E4B5A1D0651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -743,6 +743,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,22 +779,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -1080,19 +1104,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1703,7 +1727,7 @@
       <c r="E23" s="64">
         <v>0.72365591397849505</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="71">
         <v>0.76989247311828002</v>
       </c>
       <c r="G23" s="64">
@@ -1712,10 +1736,10 @@
       <c r="H23" s="64">
         <v>0.74623655913978504</v>
       </c>
-      <c r="I23" s="77">
+      <c r="I23" s="71">
         <v>0.79784946236559195</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="71">
         <v>0.76236559139784998</v>
       </c>
       <c r="K23" s="65">
@@ -1730,19 +1754,19 @@
       <c r="D24" s="66">
         <v>0.73118279569892497</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="72">
         <v>0.74623655913978504</v>
       </c>
       <c r="F24" s="67">
         <v>0.74086021505376398</v>
       </c>
-      <c r="G24" s="78">
+      <c r="G24" s="72">
         <v>0.75591397849462405</v>
       </c>
       <c r="H24" s="67">
         <v>0.73978494623655899</v>
       </c>
-      <c r="I24" s="78">
+      <c r="I24" s="72">
         <v>0.75053763440860199</v>
       </c>
       <c r="J24" s="67">
@@ -1769,13 +1793,13 @@
       <c r="F25" s="64">
         <v>0.76236559139784998</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="71">
         <v>0.79569892473118298</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="71">
         <v>0.77526881720430096</v>
       </c>
-      <c r="I25" s="77">
+      <c r="I25" s="71">
         <v>0.79784946236559195</v>
       </c>
       <c r="J25" s="64">
@@ -1793,10 +1817,10 @@
       <c r="D26" s="66">
         <v>0.76451612903225796</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="72">
         <v>0.79247311827957001</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="72">
         <v>0.77956989247311803</v>
       </c>
       <c r="G26" s="67">
@@ -1805,7 +1829,7 @@
       <c r="H26" s="67">
         <v>0.77634408602150595</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="72">
         <v>0.81720430107526898</v>
       </c>
       <c r="J26" s="67">
@@ -1832,7 +1856,7 @@
       <c r="F27" s="64">
         <v>0.75483870967741895</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="71">
         <v>0.77419354838709697</v>
       </c>
       <c r="H27" s="64">
@@ -1841,10 +1865,10 @@
       <c r="I27" s="64">
         <v>0.761290322580645</v>
       </c>
-      <c r="J27" s="77">
+      <c r="J27" s="71">
         <v>0.76989247311828002</v>
       </c>
-      <c r="K27" s="79">
+      <c r="K27" s="73">
         <v>0.78602150537634397</v>
       </c>
     </row>
@@ -1866,16 +1890,16 @@
       <c r="G28" s="67">
         <v>0.76236559139784998</v>
       </c>
-      <c r="H28" s="78">
+      <c r="H28" s="72">
         <v>0.77526881720430096</v>
       </c>
-      <c r="I28" s="78">
+      <c r="I28" s="72">
         <v>0.77849462365591404</v>
       </c>
       <c r="J28" s="67">
         <v>0.75483870967741895</v>
       </c>
-      <c r="K28" s="80">
+      <c r="K28" s="74">
         <v>0.78064516129032302</v>
       </c>
     </row>
@@ -1887,13 +1911,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="82">
+      <c r="D29" s="76">
         <v>0.76774193548387104</v>
       </c>
-      <c r="E29" s="81">
+      <c r="E29" s="75">
         <v>0.76989247311828002</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="75">
         <v>0.76559139784946295</v>
       </c>
       <c r="G29" s="16">
@@ -1921,10 +1945,10 @@
       <c r="D30" s="66">
         <v>0.738709677419355</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="72">
         <v>0.76451612903225796</v>
       </c>
-      <c r="F30" s="78">
+      <c r="F30" s="72">
         <v>0.75698924731182804</v>
       </c>
       <c r="G30" s="67">
@@ -1939,7 +1963,7 @@
       <c r="J30" s="67">
         <v>0.73548387096774204</v>
       </c>
-      <c r="K30" s="80">
+      <c r="K30" s="74">
         <v>0.75913978494623702</v>
       </c>
     </row>
@@ -2211,61 +2235,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="73" t="s">
+      <c r="G3" s="80"/>
+      <c r="H3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="73" t="s">
+      <c r="I3" s="80"/>
+      <c r="J3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="73" t="s">
+      <c r="K3" s="80"/>
+      <c r="L3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="73" t="s">
+      <c r="M3" s="80"/>
+      <c r="N3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="73" t="s">
+      <c r="O3" s="80"/>
+      <c r="P3" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="73" t="s">
+      <c r="Q3" s="80"/>
+      <c r="R3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="75"/>
+      <c r="S3" s="81"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3550,19 +3574,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4059,19 +4083,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4575,19 +4599,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5699,19 +5723,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6626,19 +6650,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7603,8 +7627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7621,19 +7645,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8229,28 +8253,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="63">
+      <c r="D23" s="83">
         <v>7</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="84">
         <v>23</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="84">
         <v>18</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="84">
         <v>32</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="84">
         <v>30</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="84">
         <v>173</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="84">
         <v>4</v>
       </c>
-      <c r="K23" s="65">
+      <c r="K23" s="85">
         <v>60</v>
       </c>
     </row>
@@ -8259,28 +8283,28 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="86">
         <v>14</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="87">
         <v>23</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F24" s="87">
         <v>9</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="87">
         <v>28</v>
       </c>
-      <c r="H24" s="67">
+      <c r="H24" s="87">
         <v>21</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="87">
         <v>173</v>
       </c>
-      <c r="J24" s="67">
+      <c r="J24" s="87">
         <v>5</v>
       </c>
-      <c r="K24" s="68">
+      <c r="K24" s="88">
         <v>24</v>
       </c>
     </row>
@@ -8292,28 +8316,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="63">
+      <c r="D25" s="83">
         <v>37</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="84">
         <v>18</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="84">
         <v>41</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="84">
         <v>24</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="84">
         <v>13</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="84">
         <v>173</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="84">
         <v>4</v>
       </c>
-      <c r="K25" s="65">
+      <c r="K25" s="85">
         <v>38</v>
       </c>
     </row>
@@ -8322,28 +8346,28 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="86">
         <v>7</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="87">
         <v>15</v>
       </c>
-      <c r="F26" s="67">
+      <c r="F26" s="87">
         <v>28</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="87">
         <v>33</v>
       </c>
-      <c r="H26" s="67">
+      <c r="H26" s="87">
         <v>7</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="87">
         <v>173</v>
       </c>
-      <c r="J26" s="67">
+      <c r="J26" s="87">
         <v>7</v>
       </c>
-      <c r="K26" s="68">
+      <c r="K26" s="88">
         <v>52</v>
       </c>
     </row>
@@ -8355,28 +8379,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="63">
+      <c r="D27" s="83">
         <v>17</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="84">
         <v>14</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="84">
         <v>20</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="84">
         <v>32</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="84">
         <v>15</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I27" s="84">
         <v>18</v>
       </c>
-      <c r="J27" s="64">
+      <c r="J27" s="84">
         <v>32</v>
       </c>
-      <c r="K27" s="65">
+      <c r="K27" s="85">
         <v>12</v>
       </c>
     </row>
@@ -8386,28 +8410,28 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="66">
+      <c r="D28" s="86">
         <v>9</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="87">
         <v>26</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F28" s="87">
         <v>32</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="87">
         <v>14</v>
       </c>
-      <c r="H28" s="67">
+      <c r="H28" s="87">
         <v>13</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="87">
         <v>12</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="87">
         <v>9</v>
       </c>
-      <c r="K28" s="68">
+      <c r="K28" s="88">
         <v>36</v>
       </c>
     </row>
@@ -8419,28 +8443,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="69">
+      <c r="D29" s="89">
         <v>6</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="11">
         <v>34</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="11">
         <v>33</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="11">
         <v>92</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="11">
         <v>10</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="11">
         <v>30</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="11">
         <v>17</v>
       </c>
-      <c r="K29" s="70">
+      <c r="K29" s="90">
         <v>106</v>
       </c>
     </row>
@@ -8450,28 +8474,28 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="66">
+      <c r="D30" s="86">
         <v>11</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="87">
         <v>30</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F30" s="87">
         <v>21</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="87">
         <v>8</v>
       </c>
-      <c r="H30" s="67">
+      <c r="H30" s="87">
         <v>22</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="87">
         <v>57</v>
       </c>
-      <c r="J30" s="67">
+      <c r="J30" s="87">
         <v>20</v>
       </c>
-      <c r="K30" s="68">
+      <c r="K30" s="88">
         <v>39</v>
       </c>
     </row>
@@ -8674,19 +8698,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9730,19 +9754,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10785,19 +10809,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11844,24 +11868,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11871,29 +11895,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="K3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="73" t="s">
+      <c r="L3" s="80"/>
+      <c r="M3" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="73" t="s">
+      <c r="N3" s="80"/>
+      <c r="O3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="75"/>
+      <c r="P3" s="81"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
